--- a/Lit review data/lit review FINAL.xlsx
+++ b/Lit review data/lit review FINAL.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11111"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/Lit review data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjcar\Documents\GitHub\humanhelminths\Lit review data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83DF7EA6-5918-A14B-BD16-3DB2A96CEAF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="26780" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="743" yWindow="458" windowWidth="26783" windowHeight="15623"/>
   </bookViews>
   <sheets>
     <sheet name="Lit review" sheetId="1" r:id="rId1"/>
     <sheet name="Weird methodologies" sheetId="2" r:id="rId2"/>
     <sheet name="PAR evaluation" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7353" uniqueCount="2366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7353" uniqueCount="2364">
   <si>
     <t>Latin name</t>
   </si>
@@ -26145,9 +26144,6 @@
     <t>grey data, risk mapping</t>
   </si>
   <si>
-    <t>grey data, endemicity mapping, ecological niche modelling</t>
-  </si>
-  <si>
     <t>prevalence mapping, risk mapping, endemicity mapping</t>
   </si>
   <si>
@@ -26370,28 +26366,39 @@
     <t>prevalence mapping, risk mapping, cluster analysis</t>
   </si>
   <si>
-    <t xml:space="preserve">prevalence mapping, prevalence modelling, </t>
-  </si>
-  <si>
     <t>endemicity mapping, grey data</t>
   </si>
   <si>
-    <t>prevalence mapping, risk modelling</t>
-  </si>
-  <si>
     <t>prevalence modelling, endemicity mapping</t>
   </si>
   <si>
     <t>prevalence mapping, risk mapping, ecological niche modeling</t>
+  </si>
+  <si>
+    <t>grey data, endemicity mapping, ecological niche modeling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="37">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26655,92 +26662,98 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -27069,32 +27082,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V487"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="93" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+      <selection pane="topRight" activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="38" style="37" customWidth="1"/>
     <col min="2" max="2" width="11" style="32"/>
     <col min="3" max="3" width="11" style="24"/>
-    <col min="4" max="4" width="44.6640625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="44.6875" style="24" customWidth="1"/>
     <col min="5" max="5" width="11" style="24"/>
-    <col min="6" max="7" width="18.33203125" style="24" customWidth="1"/>
-    <col min="8" max="9" width="25.33203125" style="24" customWidth="1"/>
-    <col min="10" max="10" width="28.33203125" style="24" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" style="24" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" style="24" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" style="24" customWidth="1"/>
+    <col min="6" max="7" width="18.3125" style="24" customWidth="1"/>
+    <col min="8" max="9" width="25.3125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="28.3125" style="24" customWidth="1"/>
+    <col min="11" max="11" width="7.3125" style="24" customWidth="1"/>
+    <col min="12" max="12" width="5.8125" style="24" customWidth="1"/>
+    <col min="13" max="13" width="8.3125" style="24" customWidth="1"/>
     <col min="14" max="15" width="30" style="24" customWidth="1"/>
-    <col min="16" max="16" width="40.83203125" style="24" customWidth="1"/>
-    <col min="17" max="17" width="22.6640625" style="24" customWidth="1"/>
-    <col min="18" max="20" width="10.33203125" style="24" customWidth="1"/>
-    <col min="21" max="21" width="26.6640625" style="24" customWidth="1"/>
+    <col min="16" max="16" width="40.8125" style="24" customWidth="1"/>
+    <col min="17" max="17" width="22.6875" style="24" customWidth="1"/>
+    <col min="18" max="20" width="10.3125" style="24" customWidth="1"/>
+    <col min="21" max="21" width="26.6875" style="24" customWidth="1"/>
     <col min="22" max="22" width="33" style="24" customWidth="1"/>
     <col min="23" max="16384" width="11" style="24"/>
   </cols>
@@ -27167,7 +27180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="16">
+    <row r="2" spans="1:22" ht="15.75">
       <c r="A2" s="37" t="s">
         <v>14</v>
       </c>
@@ -27231,7 +27244,7 @@
         <v>2014</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>15</v>
@@ -27267,9 +27280,9 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="16">
+    <row r="4" spans="1:22" ht="15.75">
       <c r="A4" s="37" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>1622</v>
@@ -27278,7 +27291,7 @@
         <v>2016</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
@@ -27308,7 +27321,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="16">
+    <row r="5" spans="1:22" ht="15.75">
       <c r="A5" s="37" t="s">
         <v>26</v>
       </c>
@@ -27352,7 +27365,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="16">
+    <row r="6" spans="1:22" ht="15.75">
       <c r="A6" s="37" t="s">
         <v>26</v>
       </c>
@@ -27402,7 +27415,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="16">
+    <row r="7" spans="1:22" ht="15.75">
       <c r="A7" s="37" t="s">
         <v>26</v>
       </c>
@@ -27454,7 +27467,7 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="37" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="B8" s="31" t="s">
         <v>1625</v>
@@ -27463,7 +27476,7 @@
         <v>2018</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>34</v>
@@ -27502,15 +27515,15 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="16">
+    <row r="9" spans="1:22" ht="15.75">
       <c r="A9" s="37" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="C9" s="24">
         <v>2018</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="E9" t="s">
         <v>912</v>
@@ -27536,7 +27549,7 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="37" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>1626</v>
@@ -27584,9 +27597,9 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="16">
+    <row r="11" spans="1:22" ht="15.75">
       <c r="A11" s="37" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="B11" s="31" t="s">
         <v>1627</v>
@@ -27637,7 +27650,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="16">
+    <row r="12" spans="1:22" ht="15.75">
       <c r="A12" s="37" t="s">
         <v>914</v>
       </c>
@@ -27672,7 +27685,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="16">
+    <row r="13" spans="1:22" ht="15.75">
       <c r="A13" s="37" t="s">
         <v>914</v>
       </c>
@@ -27704,7 +27717,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="16">
+    <row r="14" spans="1:22" ht="15.75">
       <c r="A14" s="37" t="s">
         <v>914</v>
       </c>
@@ -27760,9 +27773,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="16">
+    <row r="15" spans="1:22" ht="15.75">
       <c r="A15" s="37" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="C15" s="24">
         <v>2015</v>
@@ -27806,7 +27819,7 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="37" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="B16" s="31" t="s">
         <v>1548</v>
@@ -27860,9 +27873,9 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="16">
+    <row r="17" spans="1:22" ht="15.75">
       <c r="A17" s="37" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="B17" s="31" t="s">
         <v>1553</v>
@@ -27871,7 +27884,7 @@
         <v>2016</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>754</v>
@@ -27915,7 +27928,7 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="37" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="B18" s="31" t="s">
         <v>1631</v>
@@ -27966,9 +27979,9 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="16">
+    <row r="19" spans="1:22" ht="15.75">
       <c r="A19" s="37" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="B19" s="31" t="s">
         <v>1633</v>
@@ -28021,7 +28034,7 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="37" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="B20" s="31" t="s">
         <v>1550</v>
@@ -28030,7 +28043,7 @@
         <v>2014</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="E20" s="24" t="s">
         <v>63</v>
@@ -28071,7 +28084,7 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="37" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="B21" s="31" t="s">
         <v>1552</v>
@@ -28119,9 +28132,9 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="16">
+    <row r="22" spans="1:22" ht="15.75">
       <c r="A22" s="37" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="B22" s="31" t="s">
         <v>1554</v>
@@ -28174,7 +28187,7 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="37" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="B23" s="31" t="s">
         <v>1628</v>
@@ -28222,9 +28235,9 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="16">
+    <row r="24" spans="1:22" ht="15.75">
       <c r="A24" s="37" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="B24" s="31" t="s">
         <v>1629</v>
@@ -28272,9 +28285,9 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="16">
+    <row r="25" spans="1:22" ht="15.75">
       <c r="A25" s="37" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="B25" s="31" t="s">
         <v>1630</v>
@@ -28319,9 +28332,9 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="16">
+    <row r="26" spans="1:22" ht="15.75">
       <c r="A26" s="37" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="C26" s="24">
         <v>2013</v>
@@ -28368,7 +28381,7 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="37" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="B27" s="31" t="s">
         <v>1632</v>
@@ -28418,7 +28431,7 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="37" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="B28" s="31" t="s">
         <v>1634</v>
@@ -28463,9 +28476,9 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="16">
+    <row r="29" spans="1:22" ht="15.75">
       <c r="A29" s="37" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="B29" s="31" t="s">
         <v>1635</v>
@@ -28516,9 +28529,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="16">
+    <row r="30" spans="1:22" ht="15.75">
       <c r="A30" s="37" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="C30" s="24">
         <v>2015</v>
@@ -28560,9 +28573,9 @@
         <v>916</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="16">
+    <row r="31" spans="1:22" ht="15.75">
       <c r="A31" s="37" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="C31" s="24">
         <v>2014</v>
@@ -28612,7 +28625,7 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="37" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="B32" s="31" t="s">
         <v>1549</v>
@@ -28665,7 +28678,7 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="37" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="B33" s="31" t="s">
         <v>1551</v>
@@ -28718,7 +28731,7 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="37" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="B34" s="31" t="s">
         <v>1636</v>
@@ -28771,7 +28784,7 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="37" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="B35" s="31" t="s">
         <v>1637</v>
@@ -28819,7 +28832,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="16">
+    <row r="36" spans="1:22" ht="15.75">
       <c r="A36" s="37" t="s">
         <v>94</v>
       </c>
@@ -28880,7 +28893,7 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="37" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="B37" s="31" t="s">
         <v>1639</v>
@@ -28925,9 +28938,9 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="16">
+    <row r="38" spans="1:22" ht="15.75">
       <c r="A38" s="37" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="B38" s="31" t="s">
         <v>1640</v>
@@ -28975,7 +28988,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="16">
+    <row r="39" spans="1:22" ht="15.75">
       <c r="A39" s="37" t="s">
         <v>101</v>
       </c>
@@ -29022,7 +29035,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="16">
+    <row r="40" spans="1:22" ht="15.75">
       <c r="A40" s="37" t="s">
         <v>101</v>
       </c>
@@ -29466,7 +29479,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="16">
+    <row r="49" spans="1:22" ht="15.75">
       <c r="A49" s="37" t="s">
         <v>110</v>
       </c>
@@ -29500,7 +29513,7 @@
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="37" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="B50" s="31" t="s">
         <v>1650</v>
@@ -29550,7 +29563,7 @@
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="37" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="B51" s="31" t="s">
         <v>1652</v>
@@ -29600,7 +29613,7 @@
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="37" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="B52" s="31" t="s">
         <v>1651</v>
@@ -29650,7 +29663,7 @@
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="37" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="B53" s="31" t="s">
         <v>1653</v>
@@ -29934,7 +29947,7 @@
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="39" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="B59" s="31" t="s">
         <v>1658</v>
@@ -29976,7 +29989,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="16">
+    <row r="60" spans="1:22" ht="15.75">
       <c r="A60" s="37" t="s">
         <v>170</v>
       </c>
@@ -30215,7 +30228,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="16">
+    <row r="65" spans="1:22" ht="15.75">
       <c r="A65" s="37" t="s">
         <v>170</v>
       </c>
@@ -30259,7 +30272,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="16">
+    <row r="66" spans="1:22" ht="15.75">
       <c r="A66" s="37" t="s">
         <v>170</v>
       </c>
@@ -30294,7 +30307,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="16">
+    <row r="67" spans="1:22" ht="15.75">
       <c r="A67" s="37" t="s">
         <v>932</v>
       </c>
@@ -30388,7 +30401,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="16">
+    <row r="69" spans="1:22" ht="15.75">
       <c r="A69" s="37" t="s">
         <v>186</v>
       </c>
@@ -30538,7 +30551,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="16">
+    <row r="72" spans="1:22" ht="15.75">
       <c r="A72" s="37" t="s">
         <v>186</v>
       </c>
@@ -30670,7 +30683,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="16">
+    <row r="75" spans="1:22" ht="15.75">
       <c r="A75" s="37" t="s">
         <v>186</v>
       </c>
@@ -30705,7 +30718,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="16">
+    <row r="76" spans="1:22" ht="15.75">
       <c r="A76" s="37" t="s">
         <v>186</v>
       </c>
@@ -30752,7 +30765,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="16">
+    <row r="77" spans="1:22" ht="15.75">
       <c r="A77" s="37" t="s">
         <v>186</v>
       </c>
@@ -30784,7 +30797,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="16">
+    <row r="78" spans="1:22" ht="15.75">
       <c r="A78" s="37" t="s">
         <v>186</v>
       </c>
@@ -30824,7 +30837,7 @@
     </row>
     <row r="79" spans="1:22">
       <c r="A79" s="37" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="B79" s="31" t="s">
         <v>1667</v>
@@ -30874,7 +30887,7 @@
     </row>
     <row r="80" spans="1:22">
       <c r="A80" s="37" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="B80" s="31" t="s">
         <v>1668</v>
@@ -30963,7 +30976,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="16">
+    <row r="82" spans="1:22" ht="15.75">
       <c r="A82" s="37" t="s">
         <v>211</v>
       </c>
@@ -31063,7 +31076,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="16">
+    <row r="84" spans="1:22" ht="15.75">
       <c r="A84" s="37" t="s">
         <v>211</v>
       </c>
@@ -31110,7 +31123,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="16">
+    <row r="85" spans="1:22" ht="15.75">
       <c r="A85" s="37" t="s">
         <v>211</v>
       </c>
@@ -31153,7 +31166,7 @@
     </row>
     <row r="86" spans="1:22">
       <c r="A86" s="37" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="B86" s="31" t="s">
         <v>1672</v>
@@ -31201,7 +31214,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="16">
+    <row r="87" spans="1:22" ht="15.75">
       <c r="A87" s="37" t="s">
         <v>225</v>
       </c>
@@ -31248,7 +31261,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="16">
+    <row r="88" spans="1:22" ht="15.75">
       <c r="A88" s="37" t="s">
         <v>225</v>
       </c>
@@ -31298,7 +31311,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="16">
+    <row r="89" spans="1:22" ht="15.75">
       <c r="A89" s="37" t="s">
         <v>225</v>
       </c>
@@ -31345,7 +31358,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="16">
+    <row r="90" spans="1:22" ht="15.75">
       <c r="A90" s="37" t="s">
         <v>225</v>
       </c>
@@ -31395,7 +31408,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="16">
+    <row r="91" spans="1:22" ht="15.75">
       <c r="A91" s="37" t="s">
         <v>225</v>
       </c>
@@ -31442,7 +31455,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="16">
+    <row r="92" spans="1:22" ht="15.75">
       <c r="A92" s="37" t="s">
         <v>225</v>
       </c>
@@ -31483,7 +31496,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="16">
+    <row r="93" spans="1:22" ht="15.75">
       <c r="A93" s="37" t="s">
         <v>225</v>
       </c>
@@ -31524,7 +31537,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="16">
+    <row r="94" spans="1:22" ht="15.75">
       <c r="A94" s="37" t="s">
         <v>225</v>
       </c>
@@ -31571,7 +31584,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="16">
+    <row r="95" spans="1:22" ht="15.75">
       <c r="A95" s="37" t="s">
         <v>225</v>
       </c>
@@ -31612,7 +31625,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="16">
+    <row r="96" spans="1:22" ht="15.75">
       <c r="A96" s="37" t="s">
         <v>225</v>
       </c>
@@ -31659,7 +31672,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="16">
+    <row r="97" spans="1:22" ht="15.75">
       <c r="A97" s="37" t="s">
         <v>225</v>
       </c>
@@ -31706,7 +31719,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="16">
+    <row r="98" spans="1:22" ht="15.75">
       <c r="A98" s="37" t="s">
         <v>225</v>
       </c>
@@ -31744,7 +31757,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="99" spans="1:22" ht="16">
+    <row r="99" spans="1:22" ht="15.75">
       <c r="A99" s="37" t="s">
         <v>225</v>
       </c>
@@ -31841,7 +31854,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="101" spans="1:22" ht="16">
+    <row r="101" spans="1:22" ht="15.75">
       <c r="A101" s="37" t="s">
         <v>225</v>
       </c>
@@ -31885,7 +31898,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="16">
+    <row r="102" spans="1:22" ht="15.75">
       <c r="A102" s="37" t="s">
         <v>225</v>
       </c>
@@ -31896,7 +31909,7 @@
         <v>2015</v>
       </c>
       <c r="D102" s="39" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>252</v>
@@ -31938,7 +31951,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="103" spans="1:22" ht="16">
+    <row r="103" spans="1:22" ht="15.75">
       <c r="A103" s="37" t="s">
         <v>225</v>
       </c>
@@ -31949,7 +31962,7 @@
         <v>2015</v>
       </c>
       <c r="D103" s="39" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="E103" t="s">
         <v>255</v>
@@ -31985,7 +31998,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="104" spans="1:22" ht="16">
+    <row r="104" spans="1:22" ht="15.75">
       <c r="A104" s="37" t="s">
         <v>225</v>
       </c>
@@ -32076,7 +32089,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="16">
+    <row r="106" spans="1:22" ht="15.75">
       <c r="A106" s="37" t="s">
         <v>225</v>
       </c>
@@ -32084,7 +32097,7 @@
         <v>2018</v>
       </c>
       <c r="D106" s="39" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="E106" t="s">
         <v>948</v>
@@ -32123,7 +32136,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="107" spans="1:22" ht="16">
+    <row r="107" spans="1:22" ht="15.75">
       <c r="A107" s="37" t="s">
         <v>225</v>
       </c>
@@ -32161,7 +32174,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="108" spans="1:22" ht="16">
+    <row r="108" spans="1:22" ht="15.75">
       <c r="A108" s="37" t="s">
         <v>225</v>
       </c>
@@ -32169,7 +32182,7 @@
         <v>2012</v>
       </c>
       <c r="D108" s="39" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="E108" t="s">
         <v>966</v>
@@ -32202,7 +32215,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="109" spans="1:22" ht="16">
+    <row r="109" spans="1:22" ht="15.75">
       <c r="A109" s="37" t="s">
         <v>225</v>
       </c>
@@ -32243,7 +32256,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="110" spans="1:22" ht="16">
+    <row r="110" spans="1:22" ht="15.75">
       <c r="A110" s="37" t="s">
         <v>225</v>
       </c>
@@ -32251,7 +32264,7 @@
         <v>2015</v>
       </c>
       <c r="D110" s="39" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="E110" t="s">
         <v>962</v>
@@ -32284,7 +32297,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="111" spans="1:22" ht="16">
+    <row r="111" spans="1:22" ht="15.75">
       <c r="A111" s="37" t="s">
         <v>225</v>
       </c>
@@ -32325,7 +32338,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="112" spans="1:22" ht="16">
+    <row r="112" spans="1:22" ht="15.75">
       <c r="A112" s="37" t="s">
         <v>225</v>
       </c>
@@ -32363,7 +32376,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="16">
+    <row r="113" spans="1:22" ht="15.75">
       <c r="A113" s="37" t="s">
         <v>225</v>
       </c>
@@ -32413,7 +32426,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="16">
+    <row r="114" spans="1:22" ht="15.75">
       <c r="A114" s="37" t="s">
         <v>225</v>
       </c>
@@ -32504,7 +32517,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="16">
+    <row r="116" spans="1:22" ht="15.75">
       <c r="A116" s="37" t="s">
         <v>225</v>
       </c>
@@ -32545,7 +32558,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="16">
+    <row r="117" spans="1:22" ht="15.75">
       <c r="A117" s="37" t="s">
         <v>225</v>
       </c>
@@ -32592,7 +32605,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="118" spans="1:22" ht="16">
+    <row r="118" spans="1:22" ht="15.75">
       <c r="A118" s="37" t="s">
         <v>225</v>
       </c>
@@ -32624,7 +32637,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="119" spans="1:22" ht="16">
+    <row r="119" spans="1:22" ht="15.75">
       <c r="A119" s="37" t="s">
         <v>974</v>
       </c>
@@ -32668,7 +32681,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="16">
+    <row r="120" spans="1:22" ht="15.75">
       <c r="A120" s="37" t="s">
         <v>974</v>
       </c>
@@ -32714,7 +32727,7 @@
     </row>
     <row r="121" spans="1:22">
       <c r="A121" s="37" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="B121" s="31" t="s">
         <v>1685</v>
@@ -32761,7 +32774,7 @@
     </row>
     <row r="122" spans="1:22">
       <c r="A122" s="37" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="B122" s="31" t="s">
         <v>1687</v>
@@ -32814,7 +32827,7 @@
     </row>
     <row r="123" spans="1:22">
       <c r="A123" s="37" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="B123" s="31" t="s">
         <v>1688</v>
@@ -32864,7 +32877,7 @@
     </row>
     <row r="124" spans="1:22">
       <c r="A124" s="37" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="B124" s="31" t="s">
         <v>1689</v>
@@ -32912,9 +32925,9 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="125" spans="1:22" ht="16">
+    <row r="125" spans="1:22" ht="15.75">
       <c r="A125" s="37" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="B125" s="31" t="s">
         <v>1690</v>
@@ -32962,9 +32975,9 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="126" spans="1:22" ht="16">
+    <row r="126" spans="1:22" ht="15.75">
       <c r="A126" s="37" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="B126" s="31" t="s">
         <v>1691</v>
@@ -33014,7 +33027,7 @@
     </row>
     <row r="127" spans="1:22">
       <c r="A127" s="37" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="B127" s="31" t="s">
         <v>1559</v>
@@ -33067,7 +33080,7 @@
     </row>
     <row r="128" spans="1:22">
       <c r="A128" s="37" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="B128" s="31" t="s">
         <v>1686</v>
@@ -33114,7 +33127,7 @@
     </row>
     <row r="129" spans="1:22">
       <c r="A129" s="37" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="B129" s="31" t="s">
         <v>1692</v>
@@ -33170,7 +33183,7 @@
     </row>
     <row r="130" spans="1:22">
       <c r="A130" s="37" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="B130" s="31" t="s">
         <v>1693</v>
@@ -33218,9 +33231,9 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="131" spans="1:22" ht="16">
+    <row r="131" spans="1:22" ht="15.75">
       <c r="A131" s="37" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="B131" s="31" t="s">
         <v>1696</v>
@@ -33268,9 +33281,9 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="132" spans="1:22" ht="16">
+    <row r="132" spans="1:22" ht="15.75">
       <c r="A132" s="37" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="B132" s="31" t="s">
         <v>1694</v>
@@ -33326,7 +33339,7 @@
     </row>
     <row r="133" spans="1:22">
       <c r="A133" s="37" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="B133" s="31" t="s">
         <v>1695</v>
@@ -33371,9 +33384,9 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="134" spans="1:22" ht="16">
+    <row r="134" spans="1:22" ht="15.75">
       <c r="A134" s="37" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="B134" s="31" t="s">
         <v>1697</v>
@@ -33479,7 +33492,7 @@
         <v>2014</v>
       </c>
       <c r="D136" s="37" t="s">
-        <v>2286</v>
+        <v>2363</v>
       </c>
       <c r="E136" s="24" t="s">
         <v>903</v>
@@ -33518,7 +33531,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="137" spans="1:22" ht="16">
+    <row r="137" spans="1:22" ht="15.75">
       <c r="A137" s="37" t="s">
         <v>305</v>
       </c>
@@ -33568,7 +33581,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="138" spans="1:22" ht="16">
+    <row r="138" spans="1:22" ht="15.75">
       <c r="A138" s="37" t="s">
         <v>305</v>
       </c>
@@ -33612,7 +33625,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="139" spans="1:22" ht="16">
+    <row r="139" spans="1:22" ht="15.75">
       <c r="A139" s="37" t="s">
         <v>305</v>
       </c>
@@ -33668,7 +33681,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="140" spans="1:22" ht="16">
+    <row r="140" spans="1:22" ht="15.75">
       <c r="A140" s="37" t="s">
         <v>305</v>
       </c>
@@ -33718,7 +33731,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="141" spans="1:22" ht="16">
+    <row r="141" spans="1:22" ht="15.75">
       <c r="A141" s="37" t="s">
         <v>305</v>
       </c>
@@ -33765,7 +33778,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="142" spans="1:22" ht="16">
+    <row r="142" spans="1:22" ht="15.75">
       <c r="A142" s="37" t="s">
         <v>305</v>
       </c>
@@ -33809,7 +33822,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="143" spans="1:22" ht="16">
+    <row r="143" spans="1:22" ht="15.75">
       <c r="A143" s="37" t="s">
         <v>305</v>
       </c>
@@ -33850,7 +33863,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="144" spans="1:22" ht="16">
+    <row r="144" spans="1:22" ht="15.75">
       <c r="A144" s="37" t="s">
         <v>332</v>
       </c>
@@ -33888,7 +33901,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="145" spans="1:22" ht="16">
+    <row r="145" spans="1:22" ht="15.75">
       <c r="A145" s="37" t="s">
         <v>332</v>
       </c>
@@ -34040,8 +34053,8 @@
       <c r="C148" s="24">
         <v>2004</v>
       </c>
-      <c r="D148" s="39" t="s">
-        <v>2361</v>
+      <c r="D148" s="44" t="s">
+        <v>2272</v>
       </c>
       <c r="E148" s="24" t="s">
         <v>333</v>
@@ -34080,7 +34093,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="149" spans="1:22" ht="16">
+    <row r="149" spans="1:22" ht="15.75">
       <c r="A149" s="37" t="s">
         <v>332</v>
       </c>
@@ -34123,7 +34136,7 @@
     </row>
     <row r="150" spans="1:22">
       <c r="A150" s="37" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="B150" s="31" t="s">
         <v>1563</v>
@@ -34171,9 +34184,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="151" spans="1:22" ht="16">
+    <row r="151" spans="1:22" ht="15.75">
       <c r="A151" s="37" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="B151" s="31" t="s">
         <v>1708</v>
@@ -34226,7 +34239,7 @@
     </row>
     <row r="152" spans="1:22">
       <c r="A152" s="37" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="B152" s="31" t="s">
         <v>1709</v>
@@ -34276,7 +34289,7 @@
     </row>
     <row r="153" spans="1:22">
       <c r="A153" s="37" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="B153" s="31" t="s">
         <v>1711</v>
@@ -34329,7 +34342,7 @@
     </row>
     <row r="154" spans="1:22">
       <c r="A154" s="37" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="B154" s="31" t="s">
         <v>1564</v>
@@ -34385,7 +34398,7 @@
     </row>
     <row r="155" spans="1:22">
       <c r="A155" s="37" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="B155" s="31" t="s">
         <v>1710</v>
@@ -34433,7 +34446,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="156" spans="1:22" ht="16">
+    <row r="156" spans="1:22" ht="15.75">
       <c r="A156" s="37" t="s">
         <v>1317</v>
       </c>
@@ -34491,7 +34504,7 @@
         <v>2011</v>
       </c>
       <c r="D157" s="39" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="E157" s="24" t="s">
         <v>371</v>
@@ -34583,7 +34596,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="159" spans="1:22" ht="16">
+    <row r="159" spans="1:22" ht="15.75">
       <c r="A159" s="37" t="s">
         <v>378</v>
       </c>
@@ -34633,9 +34646,9 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="160" spans="1:22" ht="16">
+    <row r="160" spans="1:22" ht="15.75">
       <c r="A160" s="37" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="B160" s="31" t="s">
         <v>1715</v>
@@ -34644,7 +34657,7 @@
         <v>2016</v>
       </c>
       <c r="D160" s="39" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="E160" t="s">
         <v>381</v>
@@ -34689,9 +34702,9 @@
         <v>382</v>
       </c>
     </row>
-    <row r="161" spans="1:22" ht="16">
+    <row r="161" spans="1:22" ht="15.75">
       <c r="A161" s="37" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="B161" s="31" t="s">
         <v>1716</v>
@@ -34733,7 +34746,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="162" spans="1:22" ht="16">
+    <row r="162" spans="1:22" ht="15.75">
       <c r="A162" s="37" t="s">
         <v>982</v>
       </c>
@@ -34767,7 +34780,7 @@
     </row>
     <row r="163" spans="1:22">
       <c r="A163" s="37" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="B163" s="31" t="s">
         <v>1717</v>
@@ -34824,7 +34837,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="164" spans="1:22" ht="16">
+    <row r="164" spans="1:22" ht="15.75">
       <c r="A164" s="37" t="s">
         <v>390</v>
       </c>
@@ -34871,7 +34884,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="165" spans="1:22" ht="16">
+    <row r="165" spans="1:22" ht="15.75">
       <c r="A165" s="37" t="s">
         <v>390</v>
       </c>
@@ -34921,7 +34934,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="166" spans="1:22" ht="16">
+    <row r="166" spans="1:22" ht="15.75">
       <c r="A166" s="37" t="s">
         <v>390</v>
       </c>
@@ -34971,7 +34984,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="167" spans="1:22" ht="16">
+    <row r="167" spans="1:22" ht="15.75">
       <c r="A167" s="37" t="s">
         <v>390</v>
       </c>
@@ -35071,7 +35084,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="169" spans="1:22" ht="16">
+    <row r="169" spans="1:22" ht="15.75">
       <c r="A169" s="37" t="s">
         <v>390</v>
       </c>
@@ -35177,7 +35190,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="171" spans="1:22" ht="16">
+    <row r="171" spans="1:22" ht="15.75">
       <c r="A171" s="37" t="s">
         <v>390</v>
       </c>
@@ -35227,7 +35240,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="172" spans="1:22" ht="16">
+    <row r="172" spans="1:22" ht="15.75">
       <c r="A172" s="37" t="s">
         <v>390</v>
       </c>
@@ -35280,7 +35293,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="173" spans="1:22" ht="16">
+    <row r="173" spans="1:22" ht="15.75">
       <c r="A173" s="37" t="s">
         <v>390</v>
       </c>
@@ -35291,7 +35304,7 @@
         <v>2014</v>
       </c>
       <c r="D173" s="37" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="E173" t="s">
         <v>398</v>
@@ -35327,7 +35340,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="174" spans="1:22" ht="16">
+    <row r="174" spans="1:22" ht="15.75">
       <c r="A174" s="37" t="s">
         <v>390</v>
       </c>
@@ -35415,7 +35428,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="176" spans="1:22" ht="16">
+    <row r="176" spans="1:22" ht="15.75">
       <c r="A176" s="37" t="s">
         <v>390</v>
       </c>
@@ -35426,7 +35439,7 @@
         <v>2016</v>
       </c>
       <c r="D176" s="37" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="E176" t="s">
         <v>410</v>
@@ -35462,7 +35475,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="177" spans="1:22" ht="16">
+    <row r="177" spans="1:22" ht="15.75">
       <c r="A177" s="37" t="s">
         <v>390</v>
       </c>
@@ -35503,7 +35516,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="178" spans="1:22" ht="16">
+    <row r="178" spans="1:22" ht="15.75">
       <c r="A178" s="37" t="s">
         <v>390</v>
       </c>
@@ -35514,7 +35527,7 @@
         <v>2018</v>
       </c>
       <c r="D178" s="42" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
       <c r="E178" t="s">
         <v>424</v>
@@ -35550,7 +35563,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="179" spans="1:22" ht="16">
+    <row r="179" spans="1:22" ht="15.75">
       <c r="A179" s="37" t="s">
         <v>390</v>
       </c>
@@ -35561,7 +35574,7 @@
         <v>2018</v>
       </c>
       <c r="D179" s="39" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="E179" t="s">
         <v>426</v>
@@ -35594,7 +35607,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="180" spans="1:22" ht="16">
+    <row r="180" spans="1:22" ht="15.75">
       <c r="A180" s="37" t="s">
         <v>390</v>
       </c>
@@ -35644,7 +35657,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="181" spans="1:22" ht="16">
+    <row r="181" spans="1:22" ht="15.75">
       <c r="A181" s="37" t="s">
         <v>390</v>
       </c>
@@ -35744,7 +35757,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="183" spans="1:22" ht="16">
+    <row r="183" spans="1:22" ht="15.75">
       <c r="A183" s="37" t="s">
         <v>390</v>
       </c>
@@ -35794,7 +35807,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="184" spans="1:22" ht="16">
+    <row r="184" spans="1:22" ht="15.75">
       <c r="A184" s="37" t="s">
         <v>448</v>
       </c>
@@ -35847,7 +35860,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="185" spans="1:22" ht="16">
+    <row r="185" spans="1:22" ht="15.75">
       <c r="A185" s="37" t="s">
         <v>988</v>
       </c>
@@ -35935,7 +35948,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="187" spans="1:22" ht="16">
+    <row r="187" spans="1:22" ht="15.75">
       <c r="A187" s="37" t="s">
         <v>452</v>
       </c>
@@ -35979,7 +35992,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="188" spans="1:22" ht="16">
+    <row r="188" spans="1:22" ht="15.75">
       <c r="A188" s="37" t="s">
         <v>452</v>
       </c>
@@ -36126,7 +36139,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="191" spans="1:22" ht="16">
+    <row r="191" spans="1:22" ht="15.75">
       <c r="A191" s="37" t="s">
         <v>452</v>
       </c>
@@ -36134,7 +36147,7 @@
         <v>2017</v>
       </c>
       <c r="D191" s="39" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="E191" t="s">
         <v>993</v>
@@ -36161,7 +36174,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="192" spans="1:22" ht="16">
+    <row r="192" spans="1:22" ht="15.75">
       <c r="A192" s="37" t="s">
         <v>452</v>
       </c>
@@ -36169,7 +36182,7 @@
         <v>2019</v>
       </c>
       <c r="D192" s="39" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="E192" t="s">
         <v>991</v>
@@ -36201,7 +36214,7 @@
     </row>
     <row r="193" spans="1:22">
       <c r="A193" s="37" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="B193" s="31" t="s">
         <v>1738</v>
@@ -36248,7 +36261,7 @@
     </row>
     <row r="194" spans="1:22">
       <c r="A194" s="37" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="B194" s="31" t="s">
         <v>1739</v>
@@ -36349,7 +36362,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="196" spans="1:22" ht="16">
+    <row r="196" spans="1:22" ht="15.75">
       <c r="A196" s="37" t="s">
         <v>468</v>
       </c>
@@ -36437,7 +36450,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="198" spans="1:22" ht="16">
+    <row r="198" spans="1:22" ht="15.75">
       <c r="A198" s="37" t="s">
         <v>468</v>
       </c>
@@ -36487,7 +36500,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="199" spans="1:22" ht="16">
+    <row r="199" spans="1:22" ht="15.75">
       <c r="A199" s="37" t="s">
         <v>468</v>
       </c>
@@ -36537,7 +36550,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="200" spans="1:22" ht="16">
+    <row r="200" spans="1:22" ht="15.75">
       <c r="A200" s="37" t="s">
         <v>468</v>
       </c>
@@ -36587,7 +36600,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="201" spans="1:22" ht="16">
+    <row r="201" spans="1:22" ht="15.75">
       <c r="A201" s="37" t="s">
         <v>468</v>
       </c>
@@ -36637,7 +36650,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="202" spans="1:22" ht="16">
+    <row r="202" spans="1:22" ht="15.75">
       <c r="A202" s="37" t="s">
         <v>468</v>
       </c>
@@ -36737,7 +36750,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="204" spans="1:22" ht="16">
+    <row r="204" spans="1:22" ht="15.75">
       <c r="A204" s="37" t="s">
         <v>468</v>
       </c>
@@ -36790,7 +36803,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="205" spans="1:22" ht="16">
+    <row r="205" spans="1:22" ht="15.75">
       <c r="A205" s="37" t="s">
         <v>468</v>
       </c>
@@ -36840,7 +36853,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="206" spans="1:22" ht="16">
+    <row r="206" spans="1:22" ht="15.75">
       <c r="A206" s="37" t="s">
         <v>468</v>
       </c>
@@ -36890,7 +36903,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="207" spans="1:22" ht="16">
+    <row r="207" spans="1:22" ht="15.75">
       <c r="A207" s="37" t="s">
         <v>468</v>
       </c>
@@ -36943,7 +36956,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="208" spans="1:22" ht="16">
+    <row r="208" spans="1:22" ht="15.75">
       <c r="A208" s="37" t="s">
         <v>468</v>
       </c>
@@ -36993,7 +37006,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="209" spans="1:22" ht="16">
+    <row r="209" spans="1:22" ht="15.75">
       <c r="A209" s="37" t="s">
         <v>468</v>
       </c>
@@ -37043,7 +37056,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="210" spans="1:22" ht="16">
+    <row r="210" spans="1:22" ht="15.75">
       <c r="A210" s="37" t="s">
         <v>468</v>
       </c>
@@ -37081,7 +37094,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="211" spans="1:22" ht="16">
+    <row r="211" spans="1:22" ht="15.75">
       <c r="A211" s="37" t="s">
         <v>468</v>
       </c>
@@ -37122,7 +37135,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="212" spans="1:22" ht="16">
+    <row r="212" spans="1:22" ht="15.75">
       <c r="A212" s="37" t="s">
         <v>468</v>
       </c>
@@ -37172,7 +37185,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="213" spans="1:22" ht="16">
+    <row r="213" spans="1:22" ht="15.75">
       <c r="A213" s="37" t="s">
         <v>468</v>
       </c>
@@ -37219,7 +37232,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="214" spans="1:22" ht="16">
+    <row r="214" spans="1:22" ht="15.75">
       <c r="A214" s="37" t="s">
         <v>468</v>
       </c>
@@ -37269,7 +37282,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="215" spans="1:22" ht="16">
+    <row r="215" spans="1:22" ht="15.75">
       <c r="A215" s="37" t="s">
         <v>468</v>
       </c>
@@ -37279,8 +37292,8 @@
       <c r="C215" s="24">
         <v>2001</v>
       </c>
-      <c r="D215" s="39" t="s">
-        <v>2363</v>
+      <c r="D215" s="43" t="s">
+        <v>1981</v>
       </c>
       <c r="E215" s="4" t="s">
         <v>524</v>
@@ -37316,7 +37329,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="216" spans="1:22" ht="16">
+    <row r="216" spans="1:22" ht="15.75">
       <c r="A216" s="37" t="s">
         <v>468</v>
       </c>
@@ -37363,7 +37376,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="217" spans="1:22" ht="16">
+    <row r="217" spans="1:22" ht="15.75">
       <c r="A217" s="37" t="s">
         <v>468</v>
       </c>
@@ -37413,7 +37426,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="218" spans="1:22" ht="16">
+    <row r="218" spans="1:22" ht="15.75">
       <c r="A218" s="37" t="s">
         <v>468</v>
       </c>
@@ -37457,7 +37470,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="219" spans="1:22" ht="16">
+    <row r="219" spans="1:22" ht="15.75">
       <c r="A219" s="37" t="s">
         <v>468</v>
       </c>
@@ -37560,7 +37573,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="221" spans="1:22" ht="16">
+    <row r="221" spans="1:22" ht="15.75">
       <c r="A221" s="37" t="s">
         <v>468</v>
       </c>
@@ -37604,7 +37617,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="222" spans="1:22" ht="16">
+    <row r="222" spans="1:22" ht="15.75">
       <c r="A222" s="37" t="s">
         <v>468</v>
       </c>
@@ -37648,7 +37661,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="223" spans="1:22" ht="16">
+    <row r="223" spans="1:22" ht="15.75">
       <c r="A223" s="37" t="s">
         <v>468</v>
       </c>
@@ -37656,7 +37669,7 @@
         <v>2016</v>
       </c>
       <c r="D223" s="41" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="E223" t="s">
         <v>996</v>
@@ -37689,9 +37702,9 @@
         <v>916</v>
       </c>
     </row>
-    <row r="224" spans="1:22" ht="16">
+    <row r="224" spans="1:22" ht="15.75">
       <c r="A224" s="37" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="B224" s="31" t="s">
         <v>1763</v>
@@ -37741,7 +37754,7 @@
     </row>
     <row r="225" spans="1:22">
       <c r="A225" s="37" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="B225" s="31" t="s">
         <v>1765</v>
@@ -37789,9 +37802,9 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="226" spans="1:22" ht="16">
+    <row r="226" spans="1:22" ht="15.75">
       <c r="A226" s="37" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="B226" s="31" t="s">
         <v>1764</v>
@@ -37847,7 +37860,7 @@
     </row>
     <row r="227" spans="1:22">
       <c r="A227" s="37" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="B227" s="31" t="s">
         <v>1767</v>
@@ -37900,7 +37913,7 @@
     </row>
     <row r="228" spans="1:22">
       <c r="A228" s="37" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="B228" s="31" t="s">
         <v>1766</v>
@@ -37942,9 +37955,9 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="229" spans="1:22" ht="16">
+    <row r="229" spans="1:22" ht="15.75">
       <c r="A229" s="37" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="B229" s="31" t="s">
         <v>1768</v>
@@ -37992,9 +38005,9 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="230" spans="1:22" ht="16">
+    <row r="230" spans="1:22" ht="15.75">
       <c r="A230" s="37" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="B230" s="31" t="s">
         <v>1576</v>
@@ -38039,7 +38052,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="231" spans="1:22" ht="16">
+    <row r="231" spans="1:22" ht="15.75">
       <c r="A231" s="37" t="s">
         <v>540</v>
       </c>
@@ -38089,7 +38102,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="232" spans="1:22" ht="16">
+    <row r="232" spans="1:22" ht="15.75">
       <c r="A232" s="37" t="s">
         <v>540</v>
       </c>
@@ -38139,7 +38152,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="233" spans="1:22" ht="16">
+    <row r="233" spans="1:22" ht="15.75">
       <c r="A233" s="37" t="s">
         <v>540</v>
       </c>
@@ -38189,7 +38202,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="234" spans="1:22" ht="16">
+    <row r="234" spans="1:22" ht="15.75">
       <c r="A234" s="37" t="s">
         <v>540</v>
       </c>
@@ -38239,7 +38252,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="235" spans="1:22" ht="16">
+    <row r="235" spans="1:22" ht="15.75">
       <c r="A235" s="37" t="s">
         <v>540</v>
       </c>
@@ -38292,7 +38305,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="236" spans="1:22" ht="16">
+    <row r="236" spans="1:22" ht="15.75">
       <c r="A236" s="37" t="s">
         <v>540</v>
       </c>
@@ -38342,7 +38355,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="237" spans="1:22" ht="16">
+    <row r="237" spans="1:22" ht="15.75">
       <c r="A237" s="37" t="s">
         <v>540</v>
       </c>
@@ -38389,7 +38402,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="238" spans="1:22" ht="16">
+    <row r="238" spans="1:22" ht="15.75">
       <c r="A238" s="37" t="s">
         <v>540</v>
       </c>
@@ -38436,7 +38449,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="239" spans="1:22" ht="16">
+    <row r="239" spans="1:22" ht="15.75">
       <c r="A239" s="37" t="s">
         <v>540</v>
       </c>
@@ -38483,7 +38496,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="240" spans="1:22" ht="16">
+    <row r="240" spans="1:22" ht="15.75">
       <c r="A240" s="37" t="s">
         <v>540</v>
       </c>
@@ -38527,7 +38540,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="241" spans="1:22" ht="16">
+    <row r="241" spans="1:22" ht="15.75">
       <c r="A241" s="37" t="s">
         <v>540</v>
       </c>
@@ -38574,7 +38587,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="242" spans="1:22" ht="16">
+    <row r="242" spans="1:22" ht="15.75">
       <c r="A242" s="37" t="s">
         <v>540</v>
       </c>
@@ -38621,7 +38634,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="243" spans="1:22" ht="16">
+    <row r="243" spans="1:22" ht="15.75">
       <c r="A243" s="37" t="s">
         <v>540</v>
       </c>
@@ -38668,7 +38681,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="244" spans="1:22" ht="16">
+    <row r="244" spans="1:22" ht="15.75">
       <c r="A244" s="37" t="s">
         <v>540</v>
       </c>
@@ -38718,7 +38731,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="245" spans="1:22" ht="16">
+    <row r="245" spans="1:22" ht="15.75">
       <c r="A245" s="37" t="s">
         <v>540</v>
       </c>
@@ -38756,7 +38769,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="246" spans="1:22" ht="16">
+    <row r="246" spans="1:22" ht="15.75">
       <c r="A246" s="37" t="s">
         <v>540</v>
       </c>
@@ -38797,7 +38810,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="247" spans="1:22" ht="16">
+    <row r="247" spans="1:22" ht="15.75">
       <c r="A247" s="37" t="s">
         <v>540</v>
       </c>
@@ -38808,7 +38821,7 @@
         <v>2012</v>
       </c>
       <c r="D247" s="39" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
       <c r="E247" t="s">
         <v>584</v>
@@ -38841,7 +38854,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="248" spans="1:22" ht="16">
+    <row r="248" spans="1:22" ht="15.75">
       <c r="A248" s="37" t="s">
         <v>540</v>
       </c>
@@ -38932,7 +38945,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="250" spans="1:22" ht="16">
+    <row r="250" spans="1:22" ht="15.75">
       <c r="A250" s="37" t="s">
         <v>540</v>
       </c>
@@ -38982,7 +38995,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="251" spans="1:22" ht="16">
+    <row r="251" spans="1:22" ht="15.75">
       <c r="A251" s="37" t="s">
         <v>540</v>
       </c>
@@ -38993,7 +39006,7 @@
         <v>2017</v>
       </c>
       <c r="D251" s="39" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="E251" t="s">
         <v>562</v>
@@ -39026,7 +39039,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="252" spans="1:22" ht="16">
+    <row r="252" spans="1:22" ht="15.75">
       <c r="A252" s="37" t="s">
         <v>540</v>
       </c>
@@ -39073,7 +39086,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="253" spans="1:22" ht="16">
+    <row r="253" spans="1:22" ht="15.75">
       <c r="A253" s="37" t="s">
         <v>540</v>
       </c>
@@ -39120,7 +39133,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="254" spans="1:22" ht="16">
+    <row r="254" spans="1:22" ht="15.75">
       <c r="A254" s="37" t="s">
         <v>540</v>
       </c>
@@ -39164,7 +39177,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="255" spans="1:22" ht="16">
+    <row r="255" spans="1:22" ht="15.75">
       <c r="A255" s="37" t="s">
         <v>540</v>
       </c>
@@ -39208,7 +39221,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="256" spans="1:22" ht="16">
+    <row r="256" spans="1:22" ht="15.75">
       <c r="A256" s="37" t="s">
         <v>540</v>
       </c>
@@ -39246,7 +39259,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="257" spans="1:22" ht="16">
+    <row r="257" spans="1:22" ht="15.75">
       <c r="A257" s="37" t="s">
         <v>540</v>
       </c>
@@ -39290,7 +39303,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="258" spans="1:22" ht="16">
+    <row r="258" spans="1:22" ht="15.75">
       <c r="A258" s="37" t="s">
         <v>540</v>
       </c>
@@ -39334,7 +39347,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="259" spans="1:22" ht="16">
+    <row r="259" spans="1:22" ht="15.75">
       <c r="A259" s="37" t="s">
         <v>540</v>
       </c>
@@ -39378,7 +39391,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="260" spans="1:22" ht="16">
+    <row r="260" spans="1:22" ht="15.75">
       <c r="A260" s="37" t="s">
         <v>540</v>
       </c>
@@ -39416,7 +39429,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="261" spans="1:22" ht="16">
+    <row r="261" spans="1:22" ht="15.75">
       <c r="A261" s="37" t="s">
         <v>540</v>
       </c>
@@ -39454,7 +39467,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="262" spans="1:22" ht="16">
+    <row r="262" spans="1:22" ht="15.75">
       <c r="A262" s="37" t="s">
         <v>540</v>
       </c>
@@ -39492,7 +39505,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="263" spans="1:22" ht="16">
+    <row r="263" spans="1:22" ht="15.75">
       <c r="A263" s="37" t="s">
         <v>540</v>
       </c>
@@ -39530,7 +39543,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="264" spans="1:22" ht="16">
+    <row r="264" spans="1:22" ht="15.75">
       <c r="A264" s="37" t="s">
         <v>540</v>
       </c>
@@ -39568,7 +39581,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="265" spans="1:22" ht="16">
+    <row r="265" spans="1:22" ht="15.75">
       <c r="A265" s="37" t="s">
         <v>540</v>
       </c>
@@ -39603,7 +39616,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="266" spans="1:22" ht="16">
+    <row r="266" spans="1:22" ht="15.75">
       <c r="A266" s="37" t="s">
         <v>540</v>
       </c>
@@ -39644,9 +39657,9 @@
         <v>916</v>
       </c>
     </row>
-    <row r="267" spans="1:22" ht="16">
+    <row r="267" spans="1:22" ht="15.75">
       <c r="A267" s="37" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="C267" s="24">
         <v>2017</v>
@@ -39694,7 +39707,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="268" spans="1:22" ht="16">
+    <row r="268" spans="1:22" ht="15.75">
       <c r="A268" s="37" t="s">
         <v>589</v>
       </c>
@@ -39738,7 +39751,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="269" spans="1:22" ht="16">
+    <row r="269" spans="1:22" ht="15.75">
       <c r="A269" s="37" t="s">
         <v>592</v>
       </c>
@@ -39797,7 +39810,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="270" spans="1:22" ht="16">
+    <row r="270" spans="1:22" ht="15.75">
       <c r="A270" s="37" t="s">
         <v>592</v>
       </c>
@@ -39847,7 +39860,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="271" spans="1:22" ht="16">
+    <row r="271" spans="1:22" ht="15.75">
       <c r="A271" s="37" t="s">
         <v>592</v>
       </c>
@@ -39897,7 +39910,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="272" spans="1:22" ht="16">
+    <row r="272" spans="1:22" ht="15.75">
       <c r="A272" s="37" t="s">
         <v>592</v>
       </c>
@@ -39944,7 +39957,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="273" spans="1:22" ht="16">
+    <row r="273" spans="1:22" ht="15.75">
       <c r="A273" s="37" t="s">
         <v>592</v>
       </c>
@@ -39994,7 +40007,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="274" spans="1:22" ht="16">
+    <row r="274" spans="1:22" ht="15.75">
       <c r="A274" s="37" t="s">
         <v>592</v>
       </c>
@@ -40044,7 +40057,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="275" spans="1:22" ht="16">
+    <row r="275" spans="1:22" ht="15.75">
       <c r="A275" s="37" t="s">
         <v>592</v>
       </c>
@@ -40094,7 +40107,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="276" spans="1:22" ht="16">
+    <row r="276" spans="1:22" ht="15.75">
       <c r="A276" s="37" t="s">
         <v>592</v>
       </c>
@@ -40144,7 +40157,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="277" spans="1:22" ht="16">
+    <row r="277" spans="1:22" ht="15.75">
       <c r="A277" s="37" t="s">
         <v>592</v>
       </c>
@@ -40194,7 +40207,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="278" spans="1:22" ht="16">
+    <row r="278" spans="1:22" ht="15.75">
       <c r="A278" s="37" t="s">
         <v>592</v>
       </c>
@@ -40244,7 +40257,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="279" spans="1:22" ht="16">
+    <row r="279" spans="1:22" ht="15.75">
       <c r="A279" s="37" t="s">
         <v>592</v>
       </c>
@@ -40297,7 +40310,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="280" spans="1:22" ht="16">
+    <row r="280" spans="1:22" ht="15.75">
       <c r="A280" s="37" t="s">
         <v>592</v>
       </c>
@@ -40347,7 +40360,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="281" spans="1:22" ht="16">
+    <row r="281" spans="1:22" ht="15.75">
       <c r="A281" s="37" t="s">
         <v>592</v>
       </c>
@@ -40391,7 +40404,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="282" spans="1:22" ht="16">
+    <row r="282" spans="1:22" ht="15.75">
       <c r="A282" s="37" t="s">
         <v>592</v>
       </c>
@@ -40541,7 +40554,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="285" spans="1:22" ht="16">
+    <row r="285" spans="1:22" ht="15.75">
       <c r="A285" s="37" t="s">
         <v>592</v>
       </c>
@@ -40594,7 +40607,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="286" spans="1:22" ht="16">
+    <row r="286" spans="1:22" ht="15.75">
       <c r="A286" s="37" t="s">
         <v>592</v>
       </c>
@@ -40641,7 +40654,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="287" spans="1:22" ht="16">
+    <row r="287" spans="1:22" ht="15.75">
       <c r="A287" s="37" t="s">
         <v>592</v>
       </c>
@@ -40691,7 +40704,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="288" spans="1:22" ht="16">
+    <row r="288" spans="1:22" ht="15.75">
       <c r="A288" s="37" t="s">
         <v>592</v>
       </c>
@@ -40738,7 +40751,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="289" spans="1:22" ht="16">
+    <row r="289" spans="1:22" ht="15.75">
       <c r="A289" s="37" t="s">
         <v>592</v>
       </c>
@@ -40791,7 +40804,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="290" spans="1:22" ht="16">
+    <row r="290" spans="1:22" ht="15.75">
       <c r="A290" s="37" t="s">
         <v>592</v>
       </c>
@@ -40841,7 +40854,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="291" spans="1:22" ht="16">
+    <row r="291" spans="1:22" ht="15.75">
       <c r="A291" s="37" t="s">
         <v>592</v>
       </c>
@@ -40882,7 +40895,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="292" spans="1:22" ht="16">
+    <row r="292" spans="1:22" ht="15.75">
       <c r="A292" s="37" t="s">
         <v>592</v>
       </c>
@@ -40923,7 +40936,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="293" spans="1:22" ht="16">
+    <row r="293" spans="1:22" ht="15.75">
       <c r="A293" s="37" t="s">
         <v>592</v>
       </c>
@@ -40976,7 +40989,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="294" spans="1:22" ht="16">
+    <row r="294" spans="1:22" ht="15.75">
       <c r="A294" s="37" t="s">
         <v>592</v>
       </c>
@@ -41020,7 +41033,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="295" spans="1:22" ht="16">
+    <row r="295" spans="1:22" ht="15.75">
       <c r="A295" s="37" t="s">
         <v>592</v>
       </c>
@@ -41071,7 +41084,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="296" spans="1:22" ht="16">
+    <row r="296" spans="1:22" ht="15.75">
       <c r="A296" s="37" t="s">
         <v>592</v>
       </c>
@@ -41121,7 +41134,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="297" spans="1:22" ht="16">
+    <row r="297" spans="1:22" ht="15.75">
       <c r="A297" s="37" t="s">
         <v>592</v>
       </c>
@@ -41171,7 +41184,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="298" spans="1:22" ht="16">
+    <row r="298" spans="1:22" ht="15.75">
       <c r="A298" s="37" t="s">
         <v>592</v>
       </c>
@@ -41215,7 +41228,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="299" spans="1:22" ht="16">
+    <row r="299" spans="1:22" ht="15.75">
       <c r="A299" s="37" t="s">
         <v>592</v>
       </c>
@@ -41262,7 +41275,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="300" spans="1:22" ht="16">
+    <row r="300" spans="1:22" ht="15.75">
       <c r="A300" s="37" t="s">
         <v>592</v>
       </c>
@@ -41312,7 +41325,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="301" spans="1:22" ht="16">
+    <row r="301" spans="1:22" ht="15.75">
       <c r="A301" s="37" t="s">
         <v>592</v>
       </c>
@@ -41347,7 +41360,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="302" spans="1:22" ht="16">
+    <row r="302" spans="1:22" ht="15.75">
       <c r="A302" s="37" t="s">
         <v>592</v>
       </c>
@@ -41388,7 +41401,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="303" spans="1:22" ht="16">
+    <row r="303" spans="1:22" ht="15.75">
       <c r="A303" s="37" t="s">
         <v>592</v>
       </c>
@@ -41441,7 +41454,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="304" spans="1:22" ht="16">
+    <row r="304" spans="1:22" ht="15.75">
       <c r="A304" s="37" t="s">
         <v>592</v>
       </c>
@@ -41488,7 +41501,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="305" spans="1:22" ht="16">
+    <row r="305" spans="1:22" ht="15.75">
       <c r="A305" s="37" t="s">
         <v>592</v>
       </c>
@@ -41529,7 +41542,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="306" spans="1:22" ht="16">
+    <row r="306" spans="1:22" ht="15.75">
       <c r="A306" s="37" t="s">
         <v>592</v>
       </c>
@@ -41570,7 +41583,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="307" spans="1:22" ht="16">
+    <row r="307" spans="1:22" ht="15.75">
       <c r="A307" s="37" t="s">
         <v>592</v>
       </c>
@@ -41620,7 +41633,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="308" spans="1:22" ht="16">
+    <row r="308" spans="1:22" ht="15.75">
       <c r="A308" s="37" t="s">
         <v>592</v>
       </c>
@@ -41658,7 +41671,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="309" spans="1:22" ht="16">
+    <row r="309" spans="1:22" ht="15.75">
       <c r="A309" s="37" t="s">
         <v>592</v>
       </c>
@@ -41701,7 +41714,7 @@
     </row>
     <row r="310" spans="1:22">
       <c r="A310" s="37" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="B310" s="31" t="s">
         <v>1835</v>
@@ -41749,9 +41762,9 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="311" spans="1:22" ht="16">
+    <row r="311" spans="1:22" ht="15.75">
       <c r="A311" s="37" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="C311" s="24">
         <v>2009</v>
@@ -41792,7 +41805,7 @@
     </row>
     <row r="312" spans="1:22">
       <c r="A312" s="37" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="B312" s="31" t="s">
         <v>1836</v>
@@ -41840,9 +41853,9 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="313" spans="1:22" ht="16">
+    <row r="313" spans="1:22" ht="15.75">
       <c r="A313" s="37" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="B313" s="31" t="s">
         <v>1837</v>
@@ -41899,9 +41912,9 @@
         <v>674</v>
       </c>
     </row>
-    <row r="314" spans="1:22" ht="16">
+    <row r="314" spans="1:22" ht="15.75">
       <c r="A314" s="37" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="B314" s="31" t="s">
         <v>1838</v>
@@ -41951,7 +41964,7 @@
     </row>
     <row r="315" spans="1:22">
       <c r="A315" s="37" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="B315" s="31" t="s">
         <v>1578</v>
@@ -42001,7 +42014,7 @@
     </row>
     <row r="316" spans="1:22">
       <c r="A316" s="37" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="B316" s="31" t="s">
         <v>1839</v>
@@ -42052,9 +42065,9 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="317" spans="1:22" ht="16">
+    <row r="317" spans="1:22" ht="15.75">
       <c r="A317" s="37" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="B317" s="31" t="s">
         <v>1840</v>
@@ -42099,9 +42112,9 @@
         <v>678</v>
       </c>
     </row>
-    <row r="318" spans="1:22" ht="16">
+    <row r="318" spans="1:22" ht="15.75">
       <c r="A318" s="37" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B318" s="31" t="s">
         <v>1827</v>
@@ -42152,9 +42165,9 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="319" spans="1:22" ht="16">
+    <row r="319" spans="1:22" ht="15.75">
       <c r="A319" s="37" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B319" s="31" t="s">
         <v>1828</v>
@@ -42205,9 +42218,9 @@
         <v>506</v>
       </c>
     </row>
-    <row r="320" spans="1:22" ht="16">
+    <row r="320" spans="1:22" ht="15.75">
       <c r="A320" s="37" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B320" s="31" t="s">
         <v>1829</v>
@@ -42264,9 +42277,9 @@
         <v>663</v>
       </c>
     </row>
-    <row r="321" spans="1:22" ht="16">
+    <row r="321" spans="1:22" ht="15.75">
       <c r="A321" s="37" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B321" s="31" t="s">
         <v>1831</v>
@@ -42317,9 +42330,9 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="322" spans="1:22" ht="16">
+    <row r="322" spans="1:22" ht="15.75">
       <c r="A322" s="37" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B322" s="31" t="s">
         <v>1833</v>
@@ -42370,9 +42383,9 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="323" spans="1:22" ht="16">
+    <row r="323" spans="1:22" ht="15.75">
       <c r="A323" s="37" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B323" s="31" t="s">
         <v>1823</v>
@@ -42422,7 +42435,7 @@
     </row>
     <row r="324" spans="1:22">
       <c r="A324" s="37" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B324" s="31" t="s">
         <v>1830</v>
@@ -42470,9 +42483,9 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="325" spans="1:22" ht="16">
+    <row r="325" spans="1:22" ht="15.75">
       <c r="A325" s="37" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B325" s="31" t="s">
         <v>1825</v>
@@ -42520,9 +42533,9 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="326" spans="1:22" ht="16">
+    <row r="326" spans="1:22" ht="15.75">
       <c r="A326" s="37" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B326" s="31" t="s">
         <v>1834</v>
@@ -42531,7 +42544,7 @@
         <v>2018</v>
       </c>
       <c r="D326" s="39" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="E326" t="s">
         <v>659</v>
@@ -42575,7 +42588,7 @@
     </row>
     <row r="327" spans="1:22">
       <c r="A327" s="37" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B327" s="31" t="s">
         <v>1577</v>
@@ -42623,9 +42636,9 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="328" spans="1:22" ht="16">
+    <row r="328" spans="1:22" ht="15.75">
       <c r="A328" s="37" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B328" s="31" t="s">
         <v>1826</v>
@@ -42667,9 +42680,9 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="329" spans="1:22" ht="16">
+    <row r="329" spans="1:22" ht="15.75">
       <c r="A329" s="37" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="C329" s="24">
         <v>2013</v>
@@ -42705,9 +42718,9 @@
         <v>916</v>
       </c>
     </row>
-    <row r="330" spans="1:22" ht="16">
+    <row r="330" spans="1:22" ht="15.75">
       <c r="A330" s="37" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B330" s="31" t="s">
         <v>1832</v>
@@ -42755,9 +42768,9 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="331" spans="1:22" ht="16">
+    <row r="331" spans="1:22" ht="15.75">
       <c r="A331" s="37" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B331" s="31" t="s">
         <v>1824</v>
@@ -42805,9 +42818,9 @@
         <v>680</v>
       </c>
     </row>
-    <row r="332" spans="1:22" ht="16">
+    <row r="332" spans="1:22" ht="15.75">
       <c r="A332" s="37" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="C332" s="24">
         <v>2019</v>
@@ -42848,7 +42861,7 @@
     </row>
     <row r="333" spans="1:22">
       <c r="A333" s="37" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="B333" s="31" t="s">
         <v>1841</v>
@@ -42949,7 +42962,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="335" spans="1:22" ht="16">
+    <row r="335" spans="1:22" ht="15.75">
       <c r="A335" s="37" t="s">
         <v>1338</v>
       </c>
@@ -42993,7 +43006,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="336" spans="1:22" ht="16">
+    <row r="336" spans="1:22" ht="15.75">
       <c r="A336" s="37" t="s">
         <v>1338</v>
       </c>
@@ -43049,9 +43062,9 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="337" spans="1:22" ht="16">
+    <row r="337" spans="1:22" ht="15.75">
       <c r="A337" s="37" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="B337" s="31" t="s">
         <v>1579</v>
@@ -43102,9 +43115,9 @@
         <v>691</v>
       </c>
     </row>
-    <row r="338" spans="1:22" ht="16">
+    <row r="338" spans="1:22" ht="15.75">
       <c r="A338" s="37" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="B338" s="31" t="s">
         <v>1845</v>
@@ -43157,7 +43170,7 @@
     </row>
     <row r="339" spans="1:22">
       <c r="A339" s="37" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="B339" s="31" t="s">
         <v>1581</v>
@@ -43211,9 +43224,9 @@
         <v>695</v>
       </c>
     </row>
-    <row r="340" spans="1:22" ht="16">
+    <row r="340" spans="1:22" ht="15.75">
       <c r="A340" s="37" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="B340" s="31" t="s">
         <v>1580</v>
@@ -43320,7 +43333,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="342" spans="1:22" ht="16">
+    <row r="342" spans="1:22" ht="15.75">
       <c r="A342" s="37" t="s">
         <v>697</v>
       </c>
@@ -43369,7 +43382,7 @@
     </row>
     <row r="343" spans="1:22">
       <c r="A343" s="37" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="B343" s="31" t="s">
         <v>1846</v>
@@ -43420,9 +43433,9 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="344" spans="1:22" ht="16">
+    <row r="344" spans="1:22" ht="15.75">
       <c r="A344" s="37" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="B344" s="31" t="s">
         <v>1847</v>
@@ -43467,7 +43480,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="345" spans="1:22" ht="16">
+    <row r="345" spans="1:22" ht="15.75">
       <c r="A345" s="37" t="s">
         <v>1342</v>
       </c>
@@ -43514,9 +43527,9 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="346" spans="1:22" ht="16">
+    <row r="346" spans="1:22" ht="15.75">
       <c r="A346" s="37" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="B346" s="31" t="s">
         <v>1584</v>
@@ -43564,9 +43577,9 @@
         <v>706</v>
       </c>
     </row>
-    <row r="347" spans="1:22" ht="16">
+    <row r="347" spans="1:22" ht="15.75">
       <c r="A347" s="37" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="B347" s="31" t="s">
         <v>1589</v>
@@ -43611,9 +43624,9 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="348" spans="1:22" ht="16">
+    <row r="348" spans="1:22" ht="15.75">
       <c r="A348" s="37" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="B348" s="31" t="s">
         <v>1583</v>
@@ -43655,9 +43668,9 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="349" spans="1:22" ht="16">
+    <row r="349" spans="1:22" ht="15.75">
       <c r="A349" s="37" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="B349" s="31" t="s">
         <v>1587</v>
@@ -43699,9 +43712,9 @@
         <v>717</v>
       </c>
     </row>
-    <row r="350" spans="1:22" ht="16">
+    <row r="350" spans="1:22" ht="15.75">
       <c r="A350" s="37" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="B350" s="31" t="s">
         <v>1588</v>
@@ -43746,9 +43759,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="351" spans="1:22" ht="16">
+    <row r="351" spans="1:22" ht="15.75">
       <c r="A351" s="37" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="B351" s="31" t="s">
         <v>1585</v>
@@ -43757,7 +43770,7 @@
         <v>2015</v>
       </c>
       <c r="D351" s="41" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
       <c r="E351" t="s">
         <v>720</v>
@@ -43793,9 +43806,9 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="352" spans="1:22" ht="16">
+    <row r="352" spans="1:22" ht="15.75">
       <c r="A352" s="37" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="B352" s="31" t="s">
         <v>1849</v>
@@ -43840,9 +43853,9 @@
         <v>723</v>
       </c>
     </row>
-    <row r="353" spans="1:22" ht="16">
+    <row r="353" spans="1:22" ht="15.75">
       <c r="A353" s="37" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="B353" s="31" t="s">
         <v>1850</v>
@@ -43887,9 +43900,9 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="354" spans="1:22" ht="16">
+    <row r="354" spans="1:22" ht="15.75">
       <c r="A354" s="37" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="B354" s="31" t="s">
         <v>1586</v>
@@ -43940,7 +43953,7 @@
     </row>
     <row r="355" spans="1:22">
       <c r="A355" s="37" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="B355" s="31" t="s">
         <v>1851</v>
@@ -43990,7 +44003,7 @@
     </row>
     <row r="356" spans="1:22">
       <c r="A356" s="37" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="B356" s="31" t="s">
         <v>1852</v>
@@ -44041,9 +44054,9 @@
         <v>731</v>
       </c>
     </row>
-    <row r="357" spans="1:22" ht="16">
+    <row r="357" spans="1:22" ht="15.75">
       <c r="A357" s="37" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="B357" s="31" t="s">
         <v>1590</v>
@@ -44052,7 +44065,7 @@
         <v>2009</v>
       </c>
       <c r="D357" s="42" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="E357" t="s">
         <v>733</v>
@@ -44088,9 +44101,9 @@
         <v>717</v>
       </c>
     </row>
-    <row r="358" spans="1:22" ht="16">
+    <row r="358" spans="1:22" ht="15.75">
       <c r="A358" s="37" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="B358" s="31" t="s">
         <v>1976</v>
@@ -44099,7 +44112,7 @@
         <v>2014</v>
       </c>
       <c r="D358" s="39" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="E358" t="s">
         <v>734</v>
@@ -44149,7 +44162,7 @@
     </row>
     <row r="359" spans="1:22">
       <c r="A359" s="37" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="B359" s="31" t="s">
         <v>1591</v>
@@ -44194,9 +44207,9 @@
         <v>737</v>
       </c>
     </row>
-    <row r="360" spans="1:22" ht="16">
+    <row r="360" spans="1:22" ht="15.75">
       <c r="A360" s="37" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="B360" s="31" t="s">
         <v>1853</v>
@@ -44243,7 +44256,7 @@
     </row>
     <row r="361" spans="1:22">
       <c r="A361" s="37" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="B361" s="31" t="s">
         <v>1592</v>
@@ -44296,7 +44309,7 @@
     </row>
     <row r="362" spans="1:22">
       <c r="A362" s="37" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="B362" s="31" t="s">
         <v>1857</v>
@@ -44347,9 +44360,9 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="363" spans="1:22" ht="16">
+    <row r="363" spans="1:22" ht="15.75">
       <c r="A363" s="37" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="B363" s="31" t="s">
         <v>1858</v>
@@ -44402,7 +44415,7 @@
     </row>
     <row r="364" spans="1:22">
       <c r="A364" s="37" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="B364" s="31" t="s">
         <v>1862</v>
@@ -44453,9 +44466,9 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="365" spans="1:22" ht="16">
+    <row r="365" spans="1:22" ht="15.75">
       <c r="A365" s="37" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="B365" s="31" t="s">
         <v>1856</v>
@@ -44506,9 +44519,9 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="366" spans="1:22" ht="16">
+    <row r="366" spans="1:22" ht="15.75">
       <c r="A366" s="37" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="B366" s="31" t="s">
         <v>1593</v>
@@ -44564,7 +44577,7 @@
     </row>
     <row r="367" spans="1:22">
       <c r="A367" s="37" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="B367" s="31" t="s">
         <v>1861</v>
@@ -44615,9 +44628,9 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="368" spans="1:22" ht="16">
+    <row r="368" spans="1:22" ht="15.75">
       <c r="A368" s="37" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="B368" s="31" t="s">
         <v>1859</v>
@@ -44668,9 +44681,9 @@
         <v>757</v>
       </c>
     </row>
-    <row r="369" spans="1:22" ht="16">
+    <row r="369" spans="1:22" ht="15.75">
       <c r="A369" s="37" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="B369" s="31" t="s">
         <v>1860</v>
@@ -44715,9 +44728,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="370" spans="1:22" ht="16">
+    <row r="370" spans="1:22" ht="15.75">
       <c r="A370" s="37" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="B370" s="31" t="s">
         <v>1864</v>
@@ -44759,9 +44772,9 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="371" spans="1:22" ht="16">
+    <row r="371" spans="1:22" ht="15.75">
       <c r="A371" s="37" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="B371" s="31" t="s">
         <v>1863</v>
@@ -44814,7 +44827,7 @@
     </row>
     <row r="372" spans="1:22">
       <c r="A372" s="37" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="B372" s="31" t="s">
         <v>1594</v>
@@ -44862,9 +44875,9 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="373" spans="1:22" ht="16">
+    <row r="373" spans="1:22" ht="15.75">
       <c r="A373" s="37" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="B373" s="31" t="s">
         <v>1855</v>
@@ -44908,7 +44921,7 @@
     </row>
     <row r="374" spans="1:22">
       <c r="A374" s="37" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="B374" s="31" t="s">
         <v>1595</v>
@@ -45049,9 +45062,9 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="377" spans="1:22" ht="16">
+    <row r="377" spans="1:22" ht="15.75">
       <c r="A377" s="37" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="B377" s="31" t="s">
         <v>1867</v>
@@ -45202,7 +45215,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="380" spans="1:22" ht="16">
+    <row r="380" spans="1:22" ht="15.75">
       <c r="A380" s="37" t="s">
         <v>773</v>
       </c>
@@ -45337,7 +45350,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="383" spans="1:22" ht="16">
+    <row r="383" spans="1:22" ht="15.75">
       <c r="A383" s="37" t="s">
         <v>773</v>
       </c>
@@ -45375,7 +45388,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="384" spans="1:22" ht="16">
+    <row r="384" spans="1:22" ht="15.75">
       <c r="A384" s="37" t="s">
         <v>773</v>
       </c>
@@ -45413,7 +45426,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="385" spans="1:22" ht="16">
+    <row r="385" spans="1:22" ht="15.75">
       <c r="A385" s="37" t="s">
         <v>773</v>
       </c>
@@ -46151,7 +46164,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="400" spans="1:22" ht="16">
+    <row r="400" spans="1:22" ht="15.75">
       <c r="A400" s="37" t="s">
         <v>783</v>
       </c>
@@ -46189,7 +46202,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="401" spans="1:22" ht="16">
+    <row r="401" spans="1:22" ht="15.75">
       <c r="A401" s="37" t="s">
         <v>1044</v>
       </c>
@@ -46197,7 +46210,7 @@
         <v>2006</v>
       </c>
       <c r="D401" s="42" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="E401" s="4" t="s">
         <v>1045</v>
@@ -46227,9 +46240,9 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="402" spans="1:22" ht="16">
+    <row r="402" spans="1:22" ht="15.75">
       <c r="A402" s="37" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="B402" s="31" t="s">
         <v>1652</v>
@@ -46321,7 +46334,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="404" spans="1:22" ht="16">
+    <row r="404" spans="1:22" ht="15.75">
       <c r="A404" s="37" t="s">
         <v>815</v>
       </c>
@@ -46368,7 +46381,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="405" spans="1:22" ht="16">
+    <row r="405" spans="1:22" ht="15.75">
       <c r="A405" s="37" t="s">
         <v>1052</v>
       </c>
@@ -46403,7 +46416,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="406" spans="1:22" ht="16">
+    <row r="406" spans="1:22" ht="15.75">
       <c r="A406" s="37" t="s">
         <v>1052</v>
       </c>
@@ -46490,7 +46503,7 @@
     </row>
     <row r="408" spans="1:22">
       <c r="A408" s="37" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="B408" s="31" t="s">
         <v>1887</v>
@@ -46541,7 +46554,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="409" spans="1:22" ht="16">
+    <row r="409" spans="1:22" ht="15.75">
       <c r="A409" s="37" t="s">
         <v>825</v>
       </c>
@@ -46588,7 +46601,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="410" spans="1:22" ht="16">
+    <row r="410" spans="1:22" ht="15.75">
       <c r="A410" s="37" t="s">
         <v>825</v>
       </c>
@@ -46638,7 +46651,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="411" spans="1:22" ht="16">
+    <row r="411" spans="1:22" ht="15.75">
       <c r="A411" s="37" t="s">
         <v>825</v>
       </c>
@@ -46691,7 +46704,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="412" spans="1:22" ht="16">
+    <row r="412" spans="1:22" ht="15.75">
       <c r="A412" s="37" t="s">
         <v>825</v>
       </c>
@@ -46744,7 +46757,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="413" spans="1:22" ht="16">
+    <row r="413" spans="1:22" ht="15.75">
       <c r="A413" s="37" t="s">
         <v>825</v>
       </c>
@@ -46797,7 +46810,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="414" spans="1:22" ht="16">
+    <row r="414" spans="1:22" ht="15.75">
       <c r="A414" s="37" t="s">
         <v>825</v>
       </c>
@@ -46950,7 +46963,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="417" spans="1:22" ht="16">
+    <row r="417" spans="1:22" ht="15.75">
       <c r="A417" s="37" t="s">
         <v>825</v>
       </c>
@@ -47000,7 +47013,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="418" spans="1:22" ht="16">
+    <row r="418" spans="1:22" ht="15.75">
       <c r="A418" s="37" t="s">
         <v>825</v>
       </c>
@@ -47103,7 +47116,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="420" spans="1:22" ht="16">
+    <row r="420" spans="1:22" ht="15.75">
       <c r="A420" s="37" t="s">
         <v>825</v>
       </c>
@@ -47156,7 +47169,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="421" spans="1:22" ht="16">
+    <row r="421" spans="1:22" ht="15.75">
       <c r="A421" s="37" t="s">
         <v>825</v>
       </c>
@@ -47306,7 +47319,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="424" spans="1:22" ht="16">
+    <row r="424" spans="1:22" ht="15.75">
       <c r="A424" s="37" t="s">
         <v>825</v>
       </c>
@@ -47359,7 +47372,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="425" spans="1:22" ht="16">
+    <row r="425" spans="1:22" ht="15.75">
       <c r="A425" s="37" t="s">
         <v>825</v>
       </c>
@@ -47406,7 +47419,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="426" spans="1:22" ht="16">
+    <row r="426" spans="1:22" ht="15.75">
       <c r="A426" s="37" t="s">
         <v>825</v>
       </c>
@@ -47459,7 +47472,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="427" spans="1:22" ht="16">
+    <row r="427" spans="1:22" ht="15.75">
       <c r="A427" s="37" t="s">
         <v>825</v>
       </c>
@@ -47506,7 +47519,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="428" spans="1:22" ht="16">
+    <row r="428" spans="1:22" ht="15.75">
       <c r="A428" s="37" t="s">
         <v>825</v>
       </c>
@@ -47556,7 +47569,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="429" spans="1:22" ht="16">
+    <row r="429" spans="1:22" ht="15.75">
       <c r="A429" s="37" t="s">
         <v>825</v>
       </c>
@@ -47597,7 +47610,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="430" spans="1:22" ht="16">
+    <row r="430" spans="1:22" ht="15.75">
       <c r="A430" s="37" t="s">
         <v>825</v>
       </c>
@@ -47638,7 +47651,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="431" spans="1:22" ht="16">
+    <row r="431" spans="1:22" ht="15.75">
       <c r="A431" s="37" t="s">
         <v>825</v>
       </c>
@@ -47649,7 +47662,7 @@
         <v>2012</v>
       </c>
       <c r="D431" s="39" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="E431" t="s">
         <v>882</v>
@@ -47682,7 +47695,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="432" spans="1:22" ht="16">
+    <row r="432" spans="1:22" ht="15.75">
       <c r="A432" s="37" t="s">
         <v>825</v>
       </c>
@@ -47726,7 +47739,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="433" spans="1:22" ht="16">
+    <row r="433" spans="1:22" ht="15.75">
       <c r="A433" s="37" t="s">
         <v>825</v>
       </c>
@@ -47737,7 +47750,7 @@
         <v>2015</v>
       </c>
       <c r="D433" s="39" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="E433" t="s">
         <v>840</v>
@@ -47776,7 +47789,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="434" spans="1:22" ht="16">
+    <row r="434" spans="1:22" ht="15.75">
       <c r="A434" s="37" t="s">
         <v>825</v>
       </c>
@@ -47826,7 +47839,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="435" spans="1:22" ht="16">
+    <row r="435" spans="1:22" ht="15.75">
       <c r="A435" s="37" t="s">
         <v>825</v>
       </c>
@@ -47867,7 +47880,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="436" spans="1:22" ht="16">
+    <row r="436" spans="1:22" ht="15.75">
       <c r="A436" s="37" t="s">
         <v>825</v>
       </c>
@@ -47878,7 +47891,7 @@
         <v>2017</v>
       </c>
       <c r="D436" s="39" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="E436" t="s">
         <v>886</v>
@@ -47914,7 +47927,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="437" spans="1:22" ht="16">
+    <row r="437" spans="1:22" ht="15.75">
       <c r="A437" s="37" t="s">
         <v>825</v>
       </c>
@@ -47955,7 +47968,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="438" spans="1:22" ht="16">
+    <row r="438" spans="1:22" ht="15.75">
       <c r="A438" s="37" t="s">
         <v>825</v>
       </c>
@@ -48011,7 +48024,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="439" spans="1:22" ht="16">
+    <row r="439" spans="1:22" ht="15.75">
       <c r="A439" s="37" t="s">
         <v>825</v>
       </c>
@@ -48070,7 +48083,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="440" spans="1:22" ht="16">
+    <row r="440" spans="1:22" ht="15.75">
       <c r="A440" s="37" t="s">
         <v>825</v>
       </c>
@@ -48176,7 +48189,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="442" spans="1:22" ht="16">
+    <row r="442" spans="1:22" ht="15.75">
       <c r="A442" s="37" t="s">
         <v>825</v>
       </c>
@@ -48226,7 +48239,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="443" spans="1:22" ht="16">
+    <row r="443" spans="1:22" ht="15.75">
       <c r="A443" s="37" t="s">
         <v>825</v>
       </c>
@@ -48273,7 +48286,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="444" spans="1:22" ht="16">
+    <row r="444" spans="1:22" ht="15.75">
       <c r="A444" s="37" t="s">
         <v>825</v>
       </c>
@@ -48373,7 +48386,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="446" spans="1:22" ht="16">
+    <row r="446" spans="1:22" ht="15.75">
       <c r="A446" s="37" t="s">
         <v>825</v>
       </c>
@@ -48470,7 +48483,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="448" spans="1:22" ht="16">
+    <row r="448" spans="1:22" ht="15.75">
       <c r="A448" s="37" t="s">
         <v>825</v>
       </c>
@@ -48523,7 +48536,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="449" spans="1:22" ht="16">
+    <row r="449" spans="1:22" ht="15.75">
       <c r="A449" s="37" t="s">
         <v>825</v>
       </c>
@@ -48623,7 +48636,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="451" spans="1:22" ht="16">
+    <row r="451" spans="1:22" ht="15.75">
       <c r="A451" s="37" t="s">
         <v>825</v>
       </c>
@@ -48634,7 +48647,7 @@
         <v>2018</v>
       </c>
       <c r="D451" s="40" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="E451" t="s">
         <v>852</v>
@@ -48673,7 +48686,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="452" spans="1:22" ht="16">
+    <row r="452" spans="1:22" ht="15.75">
       <c r="A452" s="37" t="s">
         <v>825</v>
       </c>
@@ -48723,7 +48736,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="453" spans="1:22" ht="16">
+    <row r="453" spans="1:22" ht="15.75">
       <c r="A453" s="37" t="s">
         <v>825</v>
       </c>
@@ -48773,7 +48786,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="454" spans="1:22" ht="16">
+    <row r="454" spans="1:22" ht="15.75">
       <c r="A454" s="37" t="s">
         <v>825</v>
       </c>
@@ -48826,7 +48839,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="455" spans="1:22" ht="16">
+    <row r="455" spans="1:22" ht="15.75">
       <c r="A455" s="37" t="s">
         <v>825</v>
       </c>
@@ -48920,7 +48933,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="457" spans="1:22" ht="16">
+    <row r="457" spans="1:22" ht="15.75">
       <c r="A457" s="37" t="s">
         <v>825</v>
       </c>
@@ -49055,7 +49068,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="460" spans="1:22" ht="16">
+    <row r="460" spans="1:22" ht="15.75">
       <c r="A460" s="37" t="s">
         <v>825</v>
       </c>
@@ -49102,7 +49115,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="461" spans="1:22" ht="16">
+    <row r="461" spans="1:22" ht="15.75">
       <c r="A461" s="37" t="s">
         <v>825</v>
       </c>
@@ -49205,7 +49218,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="463" spans="1:22" ht="16">
+    <row r="463" spans="1:22" ht="15.75">
       <c r="A463" s="37" t="s">
         <v>825</v>
       </c>
@@ -49308,7 +49321,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="465" spans="1:22" ht="16">
+    <row r="465" spans="1:22" ht="15.75">
       <c r="A465" s="37" t="s">
         <v>825</v>
       </c>
@@ -49355,7 +49368,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="466" spans="1:22" ht="16">
+    <row r="466" spans="1:22" ht="15.75">
       <c r="A466" s="37" t="s">
         <v>825</v>
       </c>
@@ -49390,7 +49403,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="467" spans="1:22" ht="16">
+    <row r="467" spans="1:22" ht="15.75">
       <c r="A467" s="37" t="s">
         <v>825</v>
       </c>
@@ -49434,7 +49447,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="468" spans="1:22" ht="16">
+    <row r="468" spans="1:22" ht="15.75">
       <c r="A468" s="37" t="s">
         <v>825</v>
       </c>
@@ -49475,7 +49488,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="469" spans="1:22" ht="16">
+    <row r="469" spans="1:22" ht="15.75">
       <c r="A469" s="37" t="s">
         <v>825</v>
       </c>
@@ -49569,7 +49582,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="471" spans="1:22" ht="16">
+    <row r="471" spans="1:22" ht="15.75">
       <c r="A471" s="37" t="s">
         <v>897</v>
       </c>
@@ -49621,7 +49634,7 @@
     </row>
     <row r="472" spans="1:22">
       <c r="A472" s="37" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="B472" s="33" t="s">
         <v>1978</v>
@@ -49675,7 +49688,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="473" spans="1:22" ht="16">
+    <row r="473" spans="1:22" ht="15.75">
       <c r="A473" s="37" t="s">
         <v>1070</v>
       </c>
@@ -49757,9 +49770,9 @@
         <v>910</v>
       </c>
     </row>
-    <row r="475" spans="1:22" ht="16">
+    <row r="475" spans="1:22" ht="15.75">
       <c r="A475" s="37" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B475" s="31" t="s">
         <v>1619</v>
@@ -49812,7 +49825,7 @@
     </row>
     <row r="476" spans="1:22">
       <c r="A476" s="37" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="B476" s="31" t="s">
         <v>1656</v>
@@ -49863,7 +49876,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="477" spans="1:22" ht="16">
+    <row r="477" spans="1:22" ht="15.75">
       <c r="A477" s="37" t="s">
         <v>154</v>
       </c>
@@ -49910,7 +49923,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="478" spans="1:22" ht="16">
+    <row r="478" spans="1:22" ht="15.75">
       <c r="A478" s="37" t="s">
         <v>225</v>
       </c>
@@ -49921,7 +49934,7 @@
         <v>2014</v>
       </c>
       <c r="D478" s="39" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="E478" t="s">
         <v>259</v>
@@ -49960,7 +49973,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="479" spans="1:22" ht="16">
+    <row r="479" spans="1:22" ht="15.75">
       <c r="A479" s="37" t="s">
         <v>390</v>
       </c>
@@ -50001,7 +50014,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="480" spans="1:22" ht="16">
+    <row r="480" spans="1:22" ht="15.75">
       <c r="A480" s="37" t="s">
         <v>390</v>
       </c>
@@ -50048,7 +50061,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="481" spans="1:22" ht="16">
+    <row r="481" spans="1:22" ht="15.75">
       <c r="A481" s="37" t="s">
         <v>468</v>
       </c>
@@ -50106,7 +50119,7 @@
         <v>2014</v>
       </c>
       <c r="D482" s="41" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="E482" s="24" t="s">
         <v>1049</v>
@@ -50142,9 +50155,9 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="483" spans="1:22" ht="16">
+    <row r="483" spans="1:22" ht="15.75">
       <c r="A483" s="37" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="B483" s="31" t="s">
         <v>1885</v>
@@ -50245,9 +50258,9 @@
         <v>987</v>
       </c>
     </row>
-    <row r="485" spans="1:22" ht="16">
+    <row r="485" spans="1:22" ht="15.75">
       <c r="A485" s="37" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="B485" s="31" t="s">
         <v>1854</v>
@@ -50300,7 +50313,7 @@
     </row>
     <row r="486" spans="1:22">
       <c r="A486" s="37" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="B486" s="31" t="s">
         <v>1561</v>
@@ -50347,7 +50360,7 @@
     </row>
     <row r="487" spans="1:22">
       <c r="A487" s="37" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="B487" s="31" t="s">
         <v>1822</v>
@@ -50406,28 +50419,28 @@
     <sortCondition ref="A2:A487"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B484" r:id="rId1" display="https://doi.org/10.1016/j.trstmh.2004.02.007" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="U270" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC421731/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="U264" r:id="rId3" display="https://data.mendeley.com/datasets/vch6n3pd8f/1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E234" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E269" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E363" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E177" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E213" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E17" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E365" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E102" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E132" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E140" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E480" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E215" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E299" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E338" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E344" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E380" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="E442" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E465" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E401" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B484" r:id="rId1" display="https://doi.org/10.1016/j.trstmh.2004.02.007"/>
+    <hyperlink ref="U270" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC421731/"/>
+    <hyperlink ref="U264" r:id="rId3" display="https://data.mendeley.com/datasets/vch6n3pd8f/1"/>
+    <hyperlink ref="E234" r:id="rId4"/>
+    <hyperlink ref="E269" r:id="rId5"/>
+    <hyperlink ref="E363" r:id="rId6"/>
+    <hyperlink ref="E177" r:id="rId7"/>
+    <hyperlink ref="E213" r:id="rId8"/>
+    <hyperlink ref="E17" r:id="rId9"/>
+    <hyperlink ref="E365" r:id="rId10"/>
+    <hyperlink ref="E102" r:id="rId11"/>
+    <hyperlink ref="E132" r:id="rId12"/>
+    <hyperlink ref="E140" r:id="rId13"/>
+    <hyperlink ref="E480" r:id="rId14"/>
+    <hyperlink ref="E215" r:id="rId15"/>
+    <hyperlink ref="E299" r:id="rId16"/>
+    <hyperlink ref="E338" r:id="rId17"/>
+    <hyperlink ref="E344" r:id="rId18"/>
+    <hyperlink ref="E380" r:id="rId19"/>
+    <hyperlink ref="E442" r:id="rId20"/>
+    <hyperlink ref="E465" r:id="rId21"/>
+    <hyperlink ref="E401" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId23"/>
@@ -50435,14 +50448,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
@@ -51667,17 +51680,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D19" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D20" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D21" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D22" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D23" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="D24" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="D25" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="D26" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="D27" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D32" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="D34" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D19" r:id="rId1"/>
+    <hyperlink ref="D20" r:id="rId2"/>
+    <hyperlink ref="D21" r:id="rId3"/>
+    <hyperlink ref="D22" r:id="rId4"/>
+    <hyperlink ref="D23" r:id="rId5"/>
+    <hyperlink ref="D24" r:id="rId6"/>
+    <hyperlink ref="D25" r:id="rId7"/>
+    <hyperlink ref="D26" r:id="rId8"/>
+    <hyperlink ref="D27" r:id="rId9"/>
+    <hyperlink ref="D32" r:id="rId10"/>
+    <hyperlink ref="D34" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -51685,21 +51698,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="32.5" customWidth="1"/>
-    <col min="2" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" style="19" customWidth="1"/>
+    <col min="2" max="3" width="12.1875" customWidth="1"/>
+    <col min="4" max="4" width="37.3125" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -51713,7 +51726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="51">
+    <row r="2" spans="1:4" ht="47.25">
       <c r="A2" s="5" t="s">
         <v>36</v>
       </c>
@@ -51727,7 +51740,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17">
+    <row r="3" spans="1:4">
       <c r="A3" s="10" t="s">
         <v>914</v>
       </c>
@@ -51741,7 +51754,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="32">
+    <row r="4" spans="1:4" ht="28.9">
       <c r="A4" s="5" t="s">
         <v>49</v>
       </c>
@@ -51755,7 +51768,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17">
+    <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
@@ -51769,7 +51782,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="68">
+    <row r="6" spans="1:4" ht="63">
       <c r="A6" s="5" t="s">
         <v>49</v>
       </c>
@@ -51783,7 +51796,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="85">
+    <row r="7" spans="1:4" ht="78.75">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
@@ -51797,7 +51810,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="187">
+    <row r="8" spans="1:4" ht="157.5">
       <c r="A8" s="5" t="s">
         <v>49</v>
       </c>
@@ -51811,7 +51824,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="170">
+    <row r="9" spans="1:4" ht="141.75">
       <c r="A9" s="5" t="s">
         <v>77</v>
       </c>
@@ -51825,7 +51838,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="34">
+    <row r="10" spans="1:4" ht="31.5">
       <c r="A10" s="5" t="s">
         <v>77</v>
       </c>
@@ -51839,7 +51852,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="372">
+    <row r="11" spans="1:4" ht="346.5">
       <c r="A11" s="6" t="s">
         <v>170</v>
       </c>
@@ -51853,7 +51866,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="68">
+    <row r="12" spans="1:4" ht="63">
       <c r="A12" s="6" t="s">
         <v>186</v>
       </c>
@@ -51867,7 +51880,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="409.6">
+    <row r="13" spans="1:4" ht="409.5">
       <c r="A13" s="6" t="s">
         <v>186</v>
       </c>
@@ -51881,7 +51894,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="119">
+    <row r="14" spans="1:4" ht="94.5">
       <c r="A14" s="6" t="s">
         <v>225</v>
       </c>
@@ -51895,7 +51908,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="272">
+    <row r="15" spans="1:4" ht="252">
       <c r="A15" s="5" t="s">
         <v>271</v>
       </c>
@@ -51909,7 +51922,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="409.6">
+    <row r="16" spans="1:4" ht="409.5">
       <c r="A16" s="16" t="s">
         <v>305</v>
       </c>
@@ -51923,7 +51936,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="409.6">
+    <row r="17" spans="1:4" ht="393.75">
       <c r="A17" s="5" t="s">
         <v>1368</v>
       </c>
@@ -51937,7 +51950,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17">
+    <row r="18" spans="1:4">
       <c r="A18" s="6" t="s">
         <v>332</v>
       </c>
@@ -51951,7 +51964,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17">
+    <row r="19" spans="1:4">
       <c r="A19" s="6" t="s">
         <v>332</v>
       </c>
@@ -51965,7 +51978,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="323">
+    <row r="20" spans="1:4" ht="283.5">
       <c r="A20" s="6" t="s">
         <v>332</v>
       </c>
@@ -51979,7 +51992,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="102">
+    <row r="21" spans="1:4" ht="94.5">
       <c r="A21" s="5" t="s">
         <v>355</v>
       </c>
@@ -51993,7 +52006,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="323">
+    <row r="22" spans="1:4" ht="283.5">
       <c r="A22" s="5" t="s">
         <v>370</v>
       </c>
@@ -52007,7 +52020,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="102">
+    <row r="23" spans="1:4" ht="94.5">
       <c r="A23" s="6" t="s">
         <v>390</v>
       </c>
@@ -52021,7 +52034,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="170">
+    <row r="24" spans="1:4" ht="141.75">
       <c r="A24" s="6" t="s">
         <v>390</v>
       </c>
@@ -52035,7 +52048,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="289">
+    <row r="25" spans="1:4" ht="267.75">
       <c r="A25" s="6" t="s">
         <v>390</v>
       </c>
@@ -52049,7 +52062,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="204">
+    <row r="26" spans="1:4" ht="189">
       <c r="A26" s="6" t="s">
         <v>390</v>
       </c>
@@ -52063,7 +52076,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="119">
+    <row r="27" spans="1:4" ht="110.25">
       <c r="A27" s="6" t="s">
         <v>390</v>
       </c>
@@ -52077,7 +52090,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17">
+    <row r="28" spans="1:4">
       <c r="A28" s="6" t="s">
         <v>390</v>
       </c>
@@ -52091,7 +52104,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17">
+    <row r="29" spans="1:4">
       <c r="A29" s="6" t="s">
         <v>390</v>
       </c>
@@ -52105,7 +52118,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="102">
+    <row r="30" spans="1:4" ht="94.5">
       <c r="A30" s="6" t="s">
         <v>390</v>
       </c>
@@ -52119,7 +52132,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="153">
+    <row r="31" spans="1:4" ht="141.75">
       <c r="A31" s="6" t="s">
         <v>468</v>
       </c>
@@ -52133,7 +52146,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="85">
+    <row r="32" spans="1:4" ht="78.75">
       <c r="A32" s="6" t="s">
         <v>468</v>
       </c>
@@ -52147,7 +52160,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="136">
+    <row r="33" spans="1:4" ht="126">
       <c r="A33" s="6" t="s">
         <v>468</v>
       </c>
@@ -52161,7 +52174,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="102">
+    <row r="34" spans="1:4" ht="78.75">
       <c r="A34" s="5" t="s">
         <v>1345</v>
       </c>
@@ -52175,7 +52188,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="51">
+    <row r="35" spans="1:4" ht="47.25">
       <c r="A35" s="6" t="s">
         <v>652</v>
       </c>
@@ -52189,7 +52202,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="409.6">
+    <row r="36" spans="1:4" ht="409.5">
       <c r="A36" s="5" t="s">
         <v>1348</v>
       </c>
@@ -52203,7 +52216,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="68">
+    <row r="37" spans="1:4" ht="47.25">
       <c r="A37" s="5" t="s">
         <v>689</v>
       </c>
@@ -52217,7 +52230,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="204">
+    <row r="38" spans="1:4" ht="173.25">
       <c r="A38" s="5" t="s">
         <v>693</v>
       </c>
@@ -52231,7 +52244,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="187">
+    <row r="39" spans="1:4" ht="173.25">
       <c r="A39" s="5" t="s">
         <v>693</v>
       </c>
@@ -52245,7 +52258,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="68">
+    <row r="40" spans="1:4" ht="47.25">
       <c r="A40" s="6" t="s">
         <v>700</v>
       </c>
@@ -52259,7 +52272,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="85">
+    <row r="41" spans="1:4" ht="78.75">
       <c r="A41" s="5" t="s">
         <v>704</v>
       </c>
@@ -52273,7 +52286,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="85">
+    <row r="42" spans="1:4" ht="63">
       <c r="A42" s="5" t="s">
         <v>704</v>
       </c>
@@ -52287,7 +52300,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="85">
+    <row r="43" spans="1:4" ht="78.75">
       <c r="A43" s="5" t="s">
         <v>704</v>
       </c>
@@ -52301,7 +52314,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="85">
+    <row r="44" spans="1:4" ht="78.75">
       <c r="A44" s="5" t="s">
         <v>704</v>
       </c>
@@ -52315,7 +52328,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="68">
+    <row r="45" spans="1:4" ht="63">
       <c r="A45" s="5" t="s">
         <v>704</v>
       </c>
@@ -52329,7 +52342,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="289">
+    <row r="46" spans="1:4" ht="267.75">
       <c r="A46" s="5" t="s">
         <v>704</v>
       </c>
@@ -52343,7 +52356,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="388">
+    <row r="47" spans="1:4" ht="362.25">
       <c r="A47" s="5" t="s">
         <v>704</v>
       </c>
@@ -52357,7 +52370,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="85">
+    <row r="48" spans="1:4" ht="78.75">
       <c r="A48" s="5" t="s">
         <v>704</v>
       </c>
@@ -52371,7 +52384,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="85">
+    <row r="49" spans="1:4" ht="78.75">
       <c r="A49" s="5" t="s">
         <v>704</v>
       </c>
@@ -52385,7 +52398,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="409.6">
+    <row r="50" spans="1:4" ht="409.5">
       <c r="A50" s="5" t="s">
         <v>732</v>
       </c>
@@ -52399,7 +52412,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="136">
+    <row r="51" spans="1:4" ht="110.25">
       <c r="A51" s="5" t="s">
         <v>735</v>
       </c>
@@ -52413,7 +52426,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17">
+    <row r="52" spans="1:4">
       <c r="A52" s="5" t="s">
         <v>1370</v>
       </c>
@@ -52427,7 +52440,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="289">
+    <row r="53" spans="1:4" ht="267.75">
       <c r="A53" s="5" t="s">
         <v>745</v>
       </c>
@@ -52441,7 +52454,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="289">
+    <row r="54" spans="1:4" ht="267.75">
       <c r="A54" s="5" t="s">
         <v>1371</v>
       </c>
@@ -52455,7 +52468,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="119">
+    <row r="55" spans="1:4" ht="110.25">
       <c r="A55" s="5" t="s">
         <v>1356</v>
       </c>
@@ -52469,7 +52482,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="85">
+    <row r="56" spans="1:4" ht="78.75">
       <c r="A56" s="10" t="s">
         <v>825</v>
       </c>
@@ -52483,7 +52496,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="136">
+    <row r="57" spans="1:4" ht="126">
       <c r="A57" s="6" t="s">
         <v>825</v>
       </c>
@@ -52497,7 +52510,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="68">
+    <row r="58" spans="1:4" ht="63">
       <c r="A58" s="6" t="s">
         <v>825</v>
       </c>
@@ -52511,7 +52524,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="68">
+    <row r="59" spans="1:4" ht="47.25">
       <c r="A59" s="6" t="s">
         <v>825</v>
       </c>
@@ -52525,7 +52538,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="153">
+    <row r="60" spans="1:4" ht="141.75">
       <c r="A60" s="6" t="s">
         <v>825</v>
       </c>
@@ -52539,7 +52552,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="85">
+    <row r="61" spans="1:4" ht="78.75">
       <c r="A61" s="6" t="s">
         <v>825</v>
       </c>
@@ -52553,7 +52566,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="68">
+    <row r="62" spans="1:4" ht="63">
       <c r="A62" s="6" t="s">
         <v>825</v>
       </c>
@@ -52567,7 +52580,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="102">
+    <row r="63" spans="1:4" ht="94.5">
       <c r="A63" s="6" t="s">
         <v>825</v>
       </c>
@@ -52581,7 +52594,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="119">
+    <row r="64" spans="1:4" ht="110.25">
       <c r="A64" s="6" t="s">
         <v>825</v>
       </c>
@@ -52595,7 +52608,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="34">
+    <row r="65" spans="1:4" ht="31.5">
       <c r="A65" s="6" t="s">
         <v>825</v>
       </c>
@@ -52609,7 +52622,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="68">
+    <row r="66" spans="1:4" ht="63">
       <c r="A66" s="6" t="s">
         <v>825</v>
       </c>
@@ -52623,7 +52636,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="187">
+    <row r="67" spans="1:4" ht="173.25">
       <c r="A67" s="6" t="s">
         <v>825</v>
       </c>
@@ -52637,7 +52650,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="187">
+    <row r="68" spans="1:4" ht="173.25">
       <c r="A68" s="6" t="s">
         <v>825</v>
       </c>
@@ -52651,7 +52664,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="119">
+    <row r="69" spans="1:4" ht="110.25">
       <c r="A69" s="6" t="s">
         <v>825</v>
       </c>
@@ -52665,7 +52678,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="85">
+    <row r="70" spans="1:4" ht="78.75">
       <c r="A70" s="6" t="s">
         <v>825</v>
       </c>
@@ -52679,7 +52692,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="85">
+    <row r="71" spans="1:4" ht="78.75">
       <c r="A71" s="6" t="s">
         <v>825</v>
       </c>
@@ -52693,7 +52706,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="102">
+    <row r="72" spans="1:4" ht="94.5">
       <c r="A72" s="6" t="s">
         <v>825</v>
       </c>
@@ -52707,7 +52720,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="51">
+    <row r="73" spans="1:4" ht="47.25">
       <c r="A73" s="6" t="s">
         <v>825</v>
       </c>
@@ -52721,7 +52734,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="85">
+    <row r="74" spans="1:4" ht="78.75">
       <c r="A74" s="6" t="s">
         <v>825</v>
       </c>
@@ -52735,7 +52748,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="17">
+    <row r="75" spans="1:4">
       <c r="A75" s="6" t="s">
         <v>825</v>
       </c>
@@ -52749,7 +52762,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="85">
+    <row r="76" spans="1:4" ht="78.75">
       <c r="A76" s="6" t="s">
         <v>825</v>
       </c>
@@ -52763,7 +52776,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="68">
+    <row r="77" spans="1:4" ht="63">
       <c r="A77" s="11" t="s">
         <v>825</v>
       </c>
@@ -52777,7 +52790,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="136">
+    <row r="78" spans="1:4" ht="126">
       <c r="A78" s="5" t="s">
         <v>1450</v>
       </c>
@@ -52791,7 +52804,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="51">
+    <row r="79" spans="1:4" ht="31.5">
       <c r="A79" s="11" t="s">
         <v>1202</v>
       </c>
@@ -52807,65 +52820,65 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B43" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B22" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="B23" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="B59" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="B29" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="B26" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="B2" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="B9" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="B38" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="B37" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="B47" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="B75" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="B30" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="B27" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="B25" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="B24" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="B60" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="B70" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="B71" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="B72" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="B68" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="B65" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="B61" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="B62" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="B63" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="B64" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="B33" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="B57" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="B49" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="B48" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="B34" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="B46" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="B45" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink ref="B44" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink ref="B40" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink ref="B42" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink ref="B41" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink ref="B50" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink ref="B32" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink ref="B31" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink ref="B18" r:id="rId42" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink ref="B3" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink ref="B56" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink ref="B53" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink ref="B78" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink ref="D5" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink ref="B11" r:id="rId48" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink ref="B12" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink ref="B13" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
-    <hyperlink ref="B14" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
-    <hyperlink ref="D18" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
-    <hyperlink ref="D19" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
-    <hyperlink ref="D28" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
-    <hyperlink ref="D29" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
-    <hyperlink ref="D52" r:id="rId56" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
-    <hyperlink ref="B66" r:id="rId57" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
-    <hyperlink ref="D75" r:id="rId58" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
-    <hyperlink ref="B76" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="B43" r:id="rId1"/>
+    <hyperlink ref="B22" r:id="rId2"/>
+    <hyperlink ref="B23" r:id="rId3"/>
+    <hyperlink ref="B59" r:id="rId4"/>
+    <hyperlink ref="B29" r:id="rId5"/>
+    <hyperlink ref="B26" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B9" r:id="rId9"/>
+    <hyperlink ref="B38" r:id="rId10"/>
+    <hyperlink ref="B37" r:id="rId11"/>
+    <hyperlink ref="B47" r:id="rId12"/>
+    <hyperlink ref="B75" r:id="rId13"/>
+    <hyperlink ref="B30" r:id="rId14"/>
+    <hyperlink ref="B27" r:id="rId15"/>
+    <hyperlink ref="B25" r:id="rId16"/>
+    <hyperlink ref="B24" r:id="rId17"/>
+    <hyperlink ref="B60" r:id="rId18"/>
+    <hyperlink ref="B70" r:id="rId19"/>
+    <hyperlink ref="B71" r:id="rId20"/>
+    <hyperlink ref="B72" r:id="rId21"/>
+    <hyperlink ref="B68" r:id="rId22"/>
+    <hyperlink ref="B65" r:id="rId23"/>
+    <hyperlink ref="B61" r:id="rId24"/>
+    <hyperlink ref="B62" r:id="rId25"/>
+    <hyperlink ref="B63" r:id="rId26"/>
+    <hyperlink ref="B64" r:id="rId27"/>
+    <hyperlink ref="B33" r:id="rId28"/>
+    <hyperlink ref="B57" r:id="rId29"/>
+    <hyperlink ref="B49" r:id="rId30"/>
+    <hyperlink ref="B48" r:id="rId31"/>
+    <hyperlink ref="B34" r:id="rId32"/>
+    <hyperlink ref="B46" r:id="rId33"/>
+    <hyperlink ref="B45" r:id="rId34"/>
+    <hyperlink ref="B44" r:id="rId35"/>
+    <hyperlink ref="B40" r:id="rId36"/>
+    <hyperlink ref="B42" r:id="rId37"/>
+    <hyperlink ref="B41" r:id="rId38"/>
+    <hyperlink ref="B50" r:id="rId39"/>
+    <hyperlink ref="B32" r:id="rId40"/>
+    <hyperlink ref="B31" r:id="rId41"/>
+    <hyperlink ref="B18" r:id="rId42"/>
+    <hyperlink ref="B3" r:id="rId43"/>
+    <hyperlink ref="B56" r:id="rId44"/>
+    <hyperlink ref="B53" r:id="rId45"/>
+    <hyperlink ref="B78" r:id="rId46"/>
+    <hyperlink ref="D5" r:id="rId47"/>
+    <hyperlink ref="B11" r:id="rId48"/>
+    <hyperlink ref="B12" r:id="rId49"/>
+    <hyperlink ref="B13" r:id="rId50"/>
+    <hyperlink ref="B14" r:id="rId51"/>
+    <hyperlink ref="D18" r:id="rId52"/>
+    <hyperlink ref="D19" r:id="rId53"/>
+    <hyperlink ref="D28" r:id="rId54"/>
+    <hyperlink ref="D29" r:id="rId55"/>
+    <hyperlink ref="D52" r:id="rId56"/>
+    <hyperlink ref="B66" r:id="rId57"/>
+    <hyperlink ref="D75" r:id="rId58"/>
+    <hyperlink ref="B76" r:id="rId59"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId60"/>
